--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pengfei.xu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pengfei.xu\Documents\GitHub\leetcode-pxu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$112</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -371,19 +374,22 @@
     <t>Useful Url</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Lastest update</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>LeetCode</t>
+  </si>
+  <si>
+    <t>Last Visit</t>
   </si>
 </sst>
 </file>
@@ -797,1485 +803,1819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H112"/>
+  <dimension ref="A2:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="3"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="3"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="3"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="3"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="3"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="1"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="3"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="3"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="1"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="3"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="3"/>
       <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="1"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="3"/>
       <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="1"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="1"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="1"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="1"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="1"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="3"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="1"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="1"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="3"/>
       <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="3"/>
       <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="3"/>
       <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="1"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="1"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="1"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="1"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="3"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="1"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="1"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="1"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="3"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="3"/>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="1"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="3"/>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="1"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="3"/>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="1"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="3"/>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="1"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="3"/>
       <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="1"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="3"/>
       <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="1"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="3"/>
       <c r="H71" s="1"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="1"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="3"/>
       <c r="H72" s="1"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="1"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="3"/>
       <c r="H73" s="1"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="3"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="1"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="3"/>
       <c r="H75" s="1"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="1"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="3"/>
       <c r="H76" s="1"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="1"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="3"/>
       <c r="H77" s="1"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="1"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="3"/>
       <c r="H78" s="1"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="1"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="1"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="1"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="3"/>
       <c r="H80" s="1"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="1"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="3"/>
       <c r="H81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="1"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="1"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="1"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="1"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="1"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="1"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="3"/>
       <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="1"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="3"/>
       <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="1"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="3"/>
       <c r="H90" s="1"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="1"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="3"/>
       <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="1"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="1"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="1"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="1"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="1"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="1"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="1"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="1"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="1"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="1"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="1"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="1"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="1"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="1"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="1"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="1"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="1"/>
-    </row>
-    <row r="106" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="1"/>
-    </row>
-    <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="1"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="1"/>
-    </row>
-    <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="1"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="1"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="1"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="1"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="1"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="1"/>
-    </row>
-    <row r="111" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="1"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="1"/>
-    </row>
-    <row r="112" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="1"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I112"/>
+  <sortState ref="A3:K112">
+    <sortCondition ref="F3:F112" customList="easy,medium,hard"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
-    <hyperlink ref="A4" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
-    <hyperlink ref="A5" r:id="rId3" tooltip="003. Longest Substring Without Repeating Characters.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/003. Longest Substring Without Repeating Characters.txt"/>
-    <hyperlink ref="A6" r:id="rId4" tooltip="004. Median of Two Sorted Arrays.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/004. Median of Two Sorted Arrays.txt"/>
-    <hyperlink ref="A7" r:id="rId5" tooltip="005. Longest Palindromic Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/005. Longest Palindromic Substring.txt"/>
-    <hyperlink ref="A8" r:id="rId6" tooltip="010. Regular Expression Matching.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/010. Regular Expression Matching.txt"/>
-    <hyperlink ref="A9" r:id="rId7" tooltip="013. Roman to Integer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/013. Roman to Integer.txt"/>
-    <hyperlink ref="A10" r:id="rId8" tooltip="015. 3Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/015. 3Sum.txt"/>
-    <hyperlink ref="A11" r:id="rId9" tooltip="017. Letter Combinations of a Phone Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/017. Letter Combinations of a Phone Number.txt"/>
-    <hyperlink ref="A12" r:id="rId10" tooltip="022. Generate Parentheses.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/022. Generate Parentheses.txt"/>
-    <hyperlink ref="A13" r:id="rId11" tooltip="023. Merge k Sorted Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/023. Merge k Sorted Lists.txt"/>
-    <hyperlink ref="A14" r:id="rId12" tooltip="028. Implement strStr().txt" display="https://github.com/pxu/leetcode-pxu/blob/master/028. Implement strStr().txt"/>
-    <hyperlink ref="A15" r:id="rId13" tooltip="033. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/033. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A16" r:id="rId14" tooltip="036. Valid Sudoku.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/036. Valid Sudoku.txt"/>
-    <hyperlink ref="A17" r:id="rId15" tooltip="038. Count and Say.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/038. Count and Say.txt"/>
-    <hyperlink ref="A18" r:id="rId16" tooltip="039. Combination Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/039. Combination Sum.txt"/>
-    <hyperlink ref="A19" r:id="rId17" tooltip="046. Permutations.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/046. Permutations.txt"/>
-    <hyperlink ref="A20" r:id="rId18" tooltip="048. Rotate Image.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/048. Rotate Image.txt"/>
-    <hyperlink ref="A21" r:id="rId19" tooltip="050. Pow(x, n).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/050. Pow(x%2C n).txt"/>
-    <hyperlink ref="A22" r:id="rId20" tooltip="053. Maximum Subarray.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/053. Maximum Subarray.txt"/>
-    <hyperlink ref="A23" r:id="rId21" tooltip="056. Merge Intervals.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/056. Merge Intervals.txt"/>
-    <hyperlink ref="A24" r:id="rId22" tooltip="070. Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/070. Climbing Stairs.txt"/>
-    <hyperlink ref="A25" r:id="rId23" tooltip="071. Simplify Path.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/071. Simplify Path.txt"/>
-    <hyperlink ref="A26" r:id="rId24" tooltip="076. Minimum Window Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/076. Minimum Window Substring.txt"/>
-    <hyperlink ref="A27" r:id="rId25" tooltip="078. Subsets.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/078. Subsets.txt"/>
-    <hyperlink ref="A28" r:id="rId26" tooltip="079. Word Search.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/079. Word Search.txt"/>
-    <hyperlink ref="A29" r:id="rId27" tooltip="089. Gray Code.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/089. Gray Code.txt"/>
-    <hyperlink ref="A30" r:id="rId28" tooltip="092. Reverse Linked List II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/092. Reverse Linked List II.txt"/>
-    <hyperlink ref="A31" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
-    <hyperlink ref="A32" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
-    <hyperlink ref="A33" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
-    <hyperlink ref="A34" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
-    <hyperlink ref="A35" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
-    <hyperlink ref="A36" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
-    <hyperlink ref="A37" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
-    <hyperlink ref="A38" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
-    <hyperlink ref="A39" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
-    <hyperlink ref="A40" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
-    <hyperlink ref="A41" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
-    <hyperlink ref="A42" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
-    <hyperlink ref="A43" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
-    <hyperlink ref="A44" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
-    <hyperlink ref="A45" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
-    <hyperlink ref="A46" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
-    <hyperlink ref="A47" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A48" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
-    <hyperlink ref="A49" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
-    <hyperlink ref="A50" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
-    <hyperlink ref="A51" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
-    <hyperlink ref="A52" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
-    <hyperlink ref="A53" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
-    <hyperlink ref="A54" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
-    <hyperlink ref="A55" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
-    <hyperlink ref="A56" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
-    <hyperlink ref="A57" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
-    <hyperlink ref="A58" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
-    <hyperlink ref="A59" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
-    <hyperlink ref="A60" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
-    <hyperlink ref="A61" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
-    <hyperlink ref="A62" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
-    <hyperlink ref="A63" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
-    <hyperlink ref="A64" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
-    <hyperlink ref="A65" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
-    <hyperlink ref="A66" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
-    <hyperlink ref="A67" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
-    <hyperlink ref="A68" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
-    <hyperlink ref="A69" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
-    <hyperlink ref="A70" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
-    <hyperlink ref="A71" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
-    <hyperlink ref="A72" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
-    <hyperlink ref="A73" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
-    <hyperlink ref="A74" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
-    <hyperlink ref="A75" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
-    <hyperlink ref="A76" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
-    <hyperlink ref="A77" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
-    <hyperlink ref="A78" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
-    <hyperlink ref="A79" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
-    <hyperlink ref="A80" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
-    <hyperlink ref="A81" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
-    <hyperlink ref="A82" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
-    <hyperlink ref="A83" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A84" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
-    <hyperlink ref="A85" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
-    <hyperlink ref="A86" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
-    <hyperlink ref="A87" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
-    <hyperlink ref="A88" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
-    <hyperlink ref="A89" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
-    <hyperlink ref="A90" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
-    <hyperlink ref="A91" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
-    <hyperlink ref="A92" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A93" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A94" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A95" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A96" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A97" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A98" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A99" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A100" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A101" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A102" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A103" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A104" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A105" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A106" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A107" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A108" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A109" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A110" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A111" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A112" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="003. Longest Substring Without Repeating Characters.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/003. Longest Substring Without Repeating Characters.txt"/>
+    <hyperlink ref="B6" r:id="rId4" tooltip="004. Median of Two Sorted Arrays.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/004. Median of Two Sorted Arrays.txt"/>
+    <hyperlink ref="B7" r:id="rId5" tooltip="005. Longest Palindromic Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/005. Longest Palindromic Substring.txt"/>
+    <hyperlink ref="B8" r:id="rId6" tooltip="010. Regular Expression Matching.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/010. Regular Expression Matching.txt"/>
+    <hyperlink ref="B9" r:id="rId7" tooltip="013. Roman to Integer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/013. Roman to Integer.txt"/>
+    <hyperlink ref="B10" r:id="rId8" tooltip="015. 3Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/015. 3Sum.txt"/>
+    <hyperlink ref="B11" r:id="rId9" tooltip="017. Letter Combinations of a Phone Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/017. Letter Combinations of a Phone Number.txt"/>
+    <hyperlink ref="B12" r:id="rId10" tooltip="022. Generate Parentheses.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/022. Generate Parentheses.txt"/>
+    <hyperlink ref="B13" r:id="rId11" tooltip="023. Merge k Sorted Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/023. Merge k Sorted Lists.txt"/>
+    <hyperlink ref="B14" r:id="rId12" tooltip="028. Implement strStr().txt" display="https://github.com/pxu/leetcode-pxu/blob/master/028. Implement strStr().txt"/>
+    <hyperlink ref="B15" r:id="rId13" tooltip="033. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/033. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="B16" r:id="rId14" tooltip="036. Valid Sudoku.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/036. Valid Sudoku.txt"/>
+    <hyperlink ref="B17" r:id="rId15" tooltip="038. Count and Say.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/038. Count and Say.txt"/>
+    <hyperlink ref="B18" r:id="rId16" tooltip="039. Combination Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/039. Combination Sum.txt"/>
+    <hyperlink ref="B19" r:id="rId17" tooltip="046. Permutations.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/046. Permutations.txt"/>
+    <hyperlink ref="B20" r:id="rId18" tooltip="048. Rotate Image.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/048. Rotate Image.txt"/>
+    <hyperlink ref="B21" r:id="rId19" tooltip="050. Pow(x, n).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/050. Pow(x%2C n).txt"/>
+    <hyperlink ref="B22" r:id="rId20" tooltip="053. Maximum Subarray.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/053. Maximum Subarray.txt"/>
+    <hyperlink ref="B23" r:id="rId21" tooltip="056. Merge Intervals.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/056. Merge Intervals.txt"/>
+    <hyperlink ref="B24" r:id="rId22" tooltip="070. Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/070. Climbing Stairs.txt"/>
+    <hyperlink ref="B25" r:id="rId23" tooltip="071. Simplify Path.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/071. Simplify Path.txt"/>
+    <hyperlink ref="B26" r:id="rId24" tooltip="076. Minimum Window Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/076. Minimum Window Substring.txt"/>
+    <hyperlink ref="B27" r:id="rId25" tooltip="078. Subsets.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/078. Subsets.txt"/>
+    <hyperlink ref="B28" r:id="rId26" tooltip="079. Word Search.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/079. Word Search.txt"/>
+    <hyperlink ref="B29" r:id="rId27" tooltip="089. Gray Code.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/089. Gray Code.txt"/>
+    <hyperlink ref="B30" r:id="rId28" tooltip="092. Reverse Linked List II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/092. Reverse Linked List II.txt"/>
+    <hyperlink ref="B31" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
+    <hyperlink ref="B32" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
+    <hyperlink ref="B33" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
+    <hyperlink ref="B34" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
+    <hyperlink ref="B35" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
+    <hyperlink ref="B36" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
+    <hyperlink ref="B37" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
+    <hyperlink ref="B38" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
+    <hyperlink ref="B39" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
+    <hyperlink ref="B40" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
+    <hyperlink ref="B41" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
+    <hyperlink ref="B42" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
+    <hyperlink ref="B43" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
+    <hyperlink ref="B44" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
+    <hyperlink ref="B45" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
+    <hyperlink ref="B46" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
+    <hyperlink ref="B47" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
+    <hyperlink ref="B48" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
+    <hyperlink ref="B49" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
+    <hyperlink ref="B50" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
+    <hyperlink ref="B51" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
+    <hyperlink ref="B52" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
+    <hyperlink ref="B53" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
+    <hyperlink ref="B54" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
+    <hyperlink ref="B55" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
+    <hyperlink ref="B56" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
+    <hyperlink ref="B57" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
+    <hyperlink ref="B58" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
+    <hyperlink ref="B59" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
+    <hyperlink ref="B60" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
+    <hyperlink ref="B61" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
+    <hyperlink ref="B62" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
+    <hyperlink ref="B63" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
+    <hyperlink ref="B64" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
+    <hyperlink ref="B65" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
+    <hyperlink ref="B66" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
+    <hyperlink ref="B67" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
+    <hyperlink ref="B68" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
+    <hyperlink ref="B69" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
+    <hyperlink ref="B70" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
+    <hyperlink ref="B71" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
+    <hyperlink ref="B72" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
+    <hyperlink ref="B73" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
+    <hyperlink ref="B74" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
+    <hyperlink ref="B75" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
+    <hyperlink ref="B76" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
+    <hyperlink ref="B77" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
+    <hyperlink ref="B78" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
+    <hyperlink ref="B79" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
+    <hyperlink ref="B80" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
+    <hyperlink ref="B81" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
+    <hyperlink ref="B82" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
+    <hyperlink ref="B83" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="B84" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
+    <hyperlink ref="B85" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
+    <hyperlink ref="B86" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
+    <hyperlink ref="B87" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
+    <hyperlink ref="B88" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
+    <hyperlink ref="B89" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
+    <hyperlink ref="B90" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
+    <hyperlink ref="B91" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
+    <hyperlink ref="B92" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
+    <hyperlink ref="B93" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="B94" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="B95" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="B96" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="B97" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="B98" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="B99" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="B100" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="B101" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="B102" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="B103" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="B104" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="B105" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="B106" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="B107" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="B108" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="B109" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="B110" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="B111" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="B112" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId111"/>

--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$113</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -429,13 +430,44 @@
   </si>
   <si>
     <t>Linked List</t>
+  </si>
+  <si>
+    <t>while(curr != null){
+            next = curr.next;
+            curr.next = prev;
+            prev = curr;
+            curr = next;
+        }</t>
+  </si>
+  <si>
+    <t>445. Add Two Numbers II.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ListNode list = new ListNode(currVal);
+                list.next = head;
+                head= list;</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>more practise</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +512,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -493,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +554,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8FA"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -562,13 +606,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -591,23 +636,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -618,11 +666,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -901,12 +952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,1495 +1005,1517 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="10"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="9">
         <v>156</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="9">
         <v>453</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12">
+      <c r="C35" s="12"/>
+      <c r="D35" s="13">
         <v>43293</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="9">
         <v>1350</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12">
+      <c r="C51" s="12"/>
+      <c r="D51" s="13">
         <v>43293</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I51" s="10"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="9">
         <v>1324</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10" t="s">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9">
+        <v>35</v>
+      </c>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>372</v>
       </c>
       <c r="C65" s="7"/>
-      <c r="D65" s="12">
+      <c r="D65" s="13">
         <v>43293</v>
       </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H65" s="15" t="s">
+      <c r="H65" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I65" s="10"/>
+      <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="B93" s="9"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="9"/>
+      <c r="D93" s="13">
+        <v>43293</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>137</v>
+      </c>
       <c r="G93" s="2"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="9"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-    </row>
-    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I112">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
@@ -2535,31 +2607,83 @@
     <hyperlink ref="A90" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
     <hyperlink ref="A91" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
     <hyperlink ref="A92" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A93" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A94" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A95" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A96" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A97" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A98" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A99" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A100" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A101" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A102" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A103" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A104" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A105" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A106" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A107" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A108" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A109" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A110" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A111" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A112" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="A94" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="A95" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="A96" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="A97" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="A98" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="A99" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="A100" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="A101" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="A102" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="A103" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="A104" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="A105" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="A106" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="A107" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="A108" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="A109" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="A110" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="A111" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="A112" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="A113" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
     <hyperlink ref="H56" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
     <hyperlink ref="H35" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
     <hyperlink ref="A65" r:id="rId113"/>
+    <hyperlink ref="A93" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId114"/>
+  <pageSetup orientation="portrait" r:id="rId115"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$124</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -580,6 +580,27 @@
   </si>
   <si>
     <t>Uber,Microsoft</t>
+  </si>
+  <si>
+    <t>189. Rotate Array.txt</t>
+  </si>
+  <si>
+    <t>Microsoft,Amazon,Bloomberg</t>
+  </si>
+  <si>
+    <t>191. Number of 1 Bits.txt</t>
+  </si>
+  <si>
+    <t>Microsoft,Apple</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>Microsoft,Snapchat,Google</t>
+  </si>
+  <si>
+    <t>BST</t>
   </si>
 </sst>
 </file>
@@ -1093,11 +1114,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,88 +2077,100 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="24">
+        <v>1334</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="16" t="s">
-        <v>144</v>
-      </c>
+      <c r="E64" s="16"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="2"/>
+      <c r="G64" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H64" s="23" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="I64" s="7"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B65" s="2">
-        <v>1324</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>1332</v>
+      </c>
+      <c r="C65" s="20"/>
       <c r="D65" s="2"/>
       <c r="E65" s="16"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="21" t="s">
-        <v>125</v>
+      <c r="G65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" ht="99" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="198" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="2">
-        <v>35</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="2"/>
       <c r="E66" s="16" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F66" s="18"/>
-      <c r="G66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" s="21"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="23" t="s">
+        <v>145</v>
+      </c>
       <c r="I66" s="7"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1324</v>
+      </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="16"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="21"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="99" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B68" s="2">
+        <v>35</v>
+      </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="16"/>
+      <c r="E68" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="F68" s="18"/>
-      <c r="G68" s="2"/>
+      <c r="G68" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H68" s="21"/>
       <c r="I68" s="7"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2150,7 +2183,7 @@
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2163,7 +2196,7 @@
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2174,9 +2207,9 @@
       <c r="H71" s="21"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2189,7 +2222,7 @@
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2200,30 +2233,22 @@
       <c r="H73" s="21"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="2">
-        <v>372</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="16"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>132</v>
-      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="21"/>
       <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2236,20 +2261,28 @@
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B76" s="2">
+        <v>372</v>
+      </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2">
+        <v>43293</v>
+      </c>
       <c r="E76" s="16"/>
       <c r="F76" s="18"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="21"/>
+      <c r="G76" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="I76" s="7"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2262,7 +2295,7 @@
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2275,7 +2308,7 @@
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2288,7 +2321,7 @@
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2301,7 +2334,7 @@
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2314,7 +2347,7 @@
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2327,20 +2360,28 @@
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B83" s="2">
+        <v>900</v>
+      </c>
+      <c r="C83" s="20"/>
       <c r="D83" s="2"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="21"/>
+      <c r="F83" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>176</v>
+      </c>
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2353,7 +2394,7 @@
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2366,7 +2407,7 @@
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2379,7 +2420,7 @@
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2392,7 +2433,7 @@
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2405,7 +2446,7 @@
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2418,7 +2459,7 @@
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2431,7 +2472,7 @@
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2444,7 +2485,7 @@
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2457,7 +2498,7 @@
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2470,7 +2511,7 @@
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2483,7 +2524,7 @@
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2496,7 +2537,7 @@
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2509,7 +2550,7 @@
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2522,7 +2563,7 @@
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2535,7 +2576,7 @@
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2548,7 +2589,7 @@
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2561,7 +2602,7 @@
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2572,28 +2613,22 @@
       <c r="H101" s="21"/>
       <c r="I101" s="7"/>
     </row>
-    <row r="102" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F102" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="18"/>
       <c r="G102" s="2"/>
       <c r="H102" s="21"/>
       <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2604,22 +2639,28 @@
       <c r="H103" s="21"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="18"/>
+      <c r="D104" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="21"/>
       <c r="I104" s="7"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2632,7 +2673,7 @@
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2645,7 +2686,7 @@
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2658,7 +2699,7 @@
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2671,7 +2712,7 @@
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2684,7 +2725,7 @@
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2697,7 +2738,7 @@
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2710,7 +2751,7 @@
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2723,7 +2764,7 @@
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2736,7 +2777,7 @@
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2749,7 +2790,7 @@
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2762,7 +2803,7 @@
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2775,7 +2816,7 @@
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2786,9 +2827,9 @@
       <c r="H117" s="21"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2800,21 +2841,21 @@
       <c r="I118" s="7"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>106</v>
+      <c r="A119" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="4"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="21"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2826,21 +2867,21 @@
       <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>108</v>
+      <c r="A121" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="16"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="2"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="4"/>
       <c r="H121" s="21"/>
       <c r="I121" s="7"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2852,33 +2893,47 @@
       <c r="I122" s="7"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C123" s="24"/>
+      <c r="A123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="16"/>
-      <c r="G123" t="s">
-        <v>168</v>
-      </c>
-      <c r="H123" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="F123" s="18"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="7"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="16"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="7"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="A125" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C125" s="24"/>
       <c r="D125" s="2"/>
       <c r="E125" s="16"/>
+      <c r="G125" t="s">
+        <v>168</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B126" s="2"/>
@@ -3066,8 +3121,20 @@
       <c r="D156" s="2"/>
       <c r="E156" s="16"/>
     </row>
+    <row r="157" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="16"/>
+    </row>
+    <row r="158" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I122"/>
+  <autoFilter ref="A1:I124"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
@@ -3122,72 +3189,74 @@
     <hyperlink ref="A61" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
     <hyperlink ref="A62" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
     <hyperlink ref="A63" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
-    <hyperlink ref="A64" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
-    <hyperlink ref="A65" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
-    <hyperlink ref="A66" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
-    <hyperlink ref="A67" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
-    <hyperlink ref="A68" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
-    <hyperlink ref="A69" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
-    <hyperlink ref="A70" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
-    <hyperlink ref="A71" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
-    <hyperlink ref="A72" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
-    <hyperlink ref="A73" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
-    <hyperlink ref="A75" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
-    <hyperlink ref="A76" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
-    <hyperlink ref="A77" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
-    <hyperlink ref="A78" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
-    <hyperlink ref="A79" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
-    <hyperlink ref="A80" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
-    <hyperlink ref="A81" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
-    <hyperlink ref="A82" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
-    <hyperlink ref="A83" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
-    <hyperlink ref="A84" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
-    <hyperlink ref="A85" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
-    <hyperlink ref="A86" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
-    <hyperlink ref="A87" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
-    <hyperlink ref="A88" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
-    <hyperlink ref="A89" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
-    <hyperlink ref="A90" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
-    <hyperlink ref="A91" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
-    <hyperlink ref="A92" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A93" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
-    <hyperlink ref="A94" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
-    <hyperlink ref="A95" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
-    <hyperlink ref="A96" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
-    <hyperlink ref="A97" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
-    <hyperlink ref="A98" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
-    <hyperlink ref="A99" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
-    <hyperlink ref="A100" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
-    <hyperlink ref="A101" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A103" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A104" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A105" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A106" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A107" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A108" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A109" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A110" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A111" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A112" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A113" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A114" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A115" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A116" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A117" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A118" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A119" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A120" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A121" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A122" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
-    <hyperlink ref="H65" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="A66" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
+    <hyperlink ref="A67" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
+    <hyperlink ref="A68" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
+    <hyperlink ref="A69" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
+    <hyperlink ref="A70" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
+    <hyperlink ref="A71" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
+    <hyperlink ref="A72" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
+    <hyperlink ref="A73" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
+    <hyperlink ref="A74" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
+    <hyperlink ref="A75" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
+    <hyperlink ref="A77" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
+    <hyperlink ref="A78" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
+    <hyperlink ref="A79" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
+    <hyperlink ref="A80" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
+    <hyperlink ref="A81" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
+    <hyperlink ref="A82" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
+    <hyperlink ref="A83" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
+    <hyperlink ref="A84" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
+    <hyperlink ref="A85" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
+    <hyperlink ref="A86" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
+    <hyperlink ref="A87" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
+    <hyperlink ref="A88" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
+    <hyperlink ref="A89" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
+    <hyperlink ref="A90" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
+    <hyperlink ref="A91" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
+    <hyperlink ref="A92" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
+    <hyperlink ref="A93" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
+    <hyperlink ref="A94" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A95" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
+    <hyperlink ref="A96" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
+    <hyperlink ref="A97" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
+    <hyperlink ref="A98" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
+    <hyperlink ref="A99" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
+    <hyperlink ref="A100" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
+    <hyperlink ref="A101" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
+    <hyperlink ref="A102" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
+    <hyperlink ref="A103" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
+    <hyperlink ref="A105" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="A106" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="A107" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="A108" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="A109" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="A110" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="A111" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="A112" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="A113" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="A114" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="A115" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="A116" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="A117" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="A118" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="A119" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="A120" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="A121" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="A122" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="A123" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="A124" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="H67" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
     <hyperlink ref="H41" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="A74" r:id="rId113"/>
-    <hyperlink ref="A102" r:id="rId114"/>
+    <hyperlink ref="A76" r:id="rId113"/>
+    <hyperlink ref="A104" r:id="rId114"/>
     <hyperlink ref="A45" r:id="rId115"/>
-    <hyperlink ref="A123" r:id="rId116"/>
+    <hyperlink ref="A125" r:id="rId116"/>
+    <hyperlink ref="A64" r:id="rId117"/>
+    <hyperlink ref="A65" r:id="rId118"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId117"/>
+  <pageSetup orientation="portrait" r:id="rId119"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">

--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$132</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="221">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -602,12 +602,172 @@
   <si>
     <t>BST</t>
   </si>
+  <si>
+    <t>702. Concatenated String with Uncommon Characters of Two Strings.txt</t>
+  </si>
+  <si>
+    <t>StringHash,Table</t>
+  </si>
+  <si>
+    <t>596. Minimum Subtree</t>
+  </si>
+  <si>
+    <t>Yelp,Microsoft</t>
+  </si>
+  <si>
+    <t>Binary Tree, DFS</t>
+  </si>
+  <si>
+    <t>258. Add Digits</t>
+  </si>
+  <si>
+    <t>Apple,LinkedIn,Amazon,Facebook,Microsoft,Bloomberg,Uber</t>
+  </si>
+  <si>
+    <t>Binary Tree Traversal,Queue,Binary Tree,BFS</t>
+  </si>
+  <si>
+    <t>443. String Compression</t>
+  </si>
+  <si>
+    <t>Microsoft,Bloomberg,Yelp,Snapchat,GoDaddy,Expedia,Lyft</t>
+  </si>
+  <si>
+    <t>Uber,Microsoft,Yahoo,Bloomberg,Facebook</t>
+  </si>
+  <si>
+    <t>12. Integer to Roman</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Microsoft,Amazon,Airbnb,Bloomberg</t>
+  </si>
+  <si>
+    <t>Facebook,Uber,Microsoft,Amazon,Bloomberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Greedy,Enumeration,Array</t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Facebook,Microsoft,Amazon,Bloomberg,Adobe,Works Applications</t>
+  </si>
+  <si>
+    <t>Sort,Two Pointers,Array</t>
+  </si>
+  <si>
+    <t>Yahoo,Microsoft,Uber,Facebook,Amazon,Bloomberg,LinkedIn,Google</t>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+  </si>
+  <si>
+    <t>Microsoft,Airbnb,Google,Amazon</t>
+  </si>
+  <si>
+    <t>Trie,DFS</t>
+  </si>
+  <si>
+    <t>Microsoft,Facebook,Bloomberg</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t>091. Decode Ways.txt</t>
+  </si>
+  <si>
+    <t>simliar with clime stairs</t>
+  </si>
+  <si>
+    <t>Uber,Microsoft,Facebook</t>
+  </si>
+  <si>
+    <t>String, DP</t>
+  </si>
+  <si>
+    <t>054. Spiral Matrix.txt</t>
+  </si>
+  <si>
+    <t>Uber,Microsoft,Google</t>
+  </si>
+  <si>
+    <t>Matrix,Array</t>
+  </si>
+  <si>
+    <t>the edge check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+            if(rowStart &lt;= rowEnd){
+                for(int col = colEnd; col &gt;=colStart; col--){
+                    res.add(matrix[rowEnd][col]);
+                }
+            }
+            rowEnd--;
+            if(colStart &lt;= colEnd){
+                for(int row = rowEnd; row &gt;= rowStart; row--){
+                    res.add(matrix[row][colStart]);
+                }
+            }</t>
+  </si>
+  <si>
+    <t>r&lt;n/2; c &lt; n- r -1;clockwise</t>
+  </si>
+  <si>
+    <t>Microsoft,Amazon,Apple</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> map.get(curr).next = curr.next;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+map.get(curr).next = map.get(curr.next);</t>
+    </r>
+  </si>
+  <si>
+    <t>Uber,Microsoft,Amazon,Bloomberg</t>
+  </si>
+  <si>
+    <t>Linked, ListHash Table</t>
+  </si>
+  <si>
+    <t>complexity</t>
+  </si>
+  <si>
+    <t>Time Complexity O(n), Space Complexity O(1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +834,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF6A737D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -759,7 +926,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -830,6 +997,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1114,11 +1290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,11 +1306,11 @@
     <col min="5" max="5" width="25.5703125" style="17" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32" style="12" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="8" max="9" width="34.85546875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>110</v>
       </c>
@@ -1159,11 +1335,14 @@
       <c r="H1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,9 +1359,10 @@
         <v>115</v>
       </c>
       <c r="H2" s="21"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I2" s="21"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1193,9 +1373,10 @@
       <c r="F3" s="18"/>
       <c r="G3" s="2"/>
       <c r="H3" s="21"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="21"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1206,35 +1387,39 @@
       <c r="F4" s="18"/>
       <c r="G4" s="2"/>
       <c r="H4" s="21"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I4" s="21"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="2"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1245,103 +1430,130 @@
       <c r="F7" s="18"/>
       <c r="G7" s="2"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I7" s="21"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B8" s="2">
+        <v>418</v>
+      </c>
+      <c r="C8" s="20"/>
       <c r="D8" s="2"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="16"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>57</v>
+      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="2"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" s="21"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>423</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="25">
         <v>43294</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1350,79 +1562,84 @@
       <c r="F14" s="18"/>
       <c r="G14" s="2"/>
       <c r="H14" s="21"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="2">
-        <v>451</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="16"/>
       <c r="F15" s="18"/>
       <c r="G15" s="2"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I15" s="21"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="24"/>
+        <v>143</v>
+      </c>
+      <c r="B16" s="2">
+        <v>451</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="18"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2">
-        <v>13</v>
-      </c>
-      <c r="C17" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="2"/>
       <c r="E17" s="16"/>
       <c r="F17" s="18" t="s">
         <v>127</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="2">
+        <v>13</v>
+      </c>
+      <c r="C18" s="20"/>
       <c r="D18" s="2"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1431,11 +1648,12 @@
       <c r="F19" s="18"/>
       <c r="G19" s="2"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I19" s="21"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1444,11 +1662,12 @@
       <c r="F20" s="18"/>
       <c r="G20" s="2"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I20" s="21"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1457,11 +1676,12 @@
       <c r="F21" s="18"/>
       <c r="G21" s="2"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I21" s="21"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1470,11 +1690,12 @@
       <c r="F22" s="18"/>
       <c r="G22" s="2"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I22" s="21"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1483,88 +1704,112 @@
       <c r="F23" s="18"/>
       <c r="G23" s="2"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I23" s="21"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>161</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="16" t="s">
-        <v>161</v>
-      </c>
+      <c r="E25" s="16"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" s="26"/>
-    </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="G25" s="2"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2">
-        <v>156</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="16" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F26" s="18"/>
-      <c r="G26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="B27" s="2">
+        <v>374</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="F27" s="18"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G27" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>156</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H28" s="21"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I28" s="21"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1573,24 +1818,28 @@
       <c r="F29" s="18"/>
       <c r="G29" s="2"/>
       <c r="H29" s="21"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I29" s="21"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="396" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>211</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="2"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I30" s="21"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1599,114 +1848,132 @@
       <c r="F31" s="18"/>
       <c r="G31" s="2"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I31" s="21"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="24"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="16"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G32" s="2"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B33" s="2">
+        <v>123</v>
+      </c>
+      <c r="C33" s="24"/>
       <c r="D33" s="2"/>
       <c r="E33" s="16"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="24"/>
       <c r="D34" s="2"/>
       <c r="E34" s="16"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="16"/>
       <c r="F35" s="18"/>
       <c r="G35" s="2"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I35" s="21"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="B36" s="2">
+        <v>512</v>
+      </c>
+      <c r="C36" s="20"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E36" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C37" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="16"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G37" s="2"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2">
+        <v>43293</v>
+      </c>
       <c r="E38" s="16"/>
       <c r="F38" s="18"/>
       <c r="G38" s="2"/>
       <c r="H38" s="21"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I38" s="21"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1715,49 +1982,50 @@
       <c r="F39" s="18"/>
       <c r="G39" s="2"/>
       <c r="H39" s="21"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="21"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C40" s="24"/>
       <c r="D40" s="2"/>
       <c r="E40" s="16"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="2">
-        <v>453</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1766,11 +2034,12 @@
       <c r="F42" s="18"/>
       <c r="G42" s="2"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I42" s="21"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1779,58 +2048,72 @@
       <c r="F43" s="18"/>
       <c r="G43" s="2"/>
       <c r="H43" s="21"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I43" s="21"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B44" s="2">
+        <v>453</v>
+      </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="2">
-        <v>415</v>
-      </c>
-      <c r="C45" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="16"/>
-      <c r="F45" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F45" s="18"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B46" s="2">
+        <v>149</v>
+      </c>
+      <c r="C46" s="24"/>
       <c r="D46" s="2"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G46" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1839,24 +2122,34 @@
       <c r="F47" s="18"/>
       <c r="G47" s="2"/>
       <c r="H47" s="21"/>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I47" s="21"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="B48" s="2">
+        <v>415</v>
+      </c>
+      <c r="C48" s="24"/>
       <c r="D48" s="2"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F48" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1865,11 +2158,12 @@
       <c r="F49" s="18"/>
       <c r="G49" s="2"/>
       <c r="H49" s="21"/>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I49" s="21"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1878,11 +2172,12 @@
       <c r="F50" s="18"/>
       <c r="G50" s="2"/>
       <c r="H50" s="21"/>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I50" s="21"/>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1891,11 +2186,12 @@
       <c r="F51" s="18"/>
       <c r="G51" s="2"/>
       <c r="H51" s="21"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="21"/>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1904,58 +2200,68 @@
       <c r="F52" s="18"/>
       <c r="G52" s="2"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="21"/>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="2">
-        <v>53</v>
-      </c>
-      <c r="C53" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="16"/>
-      <c r="F53" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H53" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="18"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="B54" s="2">
+        <v>105</v>
+      </c>
+      <c r="C54" s="20"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E54" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="H55" s="21"/>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I55" s="21"/>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1964,90 +2270,102 @@
       <c r="F56" s="18"/>
       <c r="G56" s="2"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I56" s="21"/>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="20"/>
       <c r="D57" s="2"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F57" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B58" s="2">
+        <v>159</v>
+      </c>
+      <c r="C58" s="20"/>
       <c r="D58" s="2"/>
       <c r="E58" s="16"/>
       <c r="F58" s="18"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I58" s="30"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1350</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G59" s="2"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B60" s="2">
-        <v>1348</v>
-      </c>
-      <c r="C60" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="16"/>
       <c r="F60" s="18"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B61" s="2">
+        <v>380</v>
+      </c>
+      <c r="C61" s="24"/>
       <c r="D61" s="2"/>
       <c r="E61" s="16"/>
       <c r="F61" s="18"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I61" s="23"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2056,173 +2374,198 @@
       <c r="F62" s="18"/>
       <c r="G62" s="2"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I62" s="21"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B63" s="2">
-        <v>927</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="16"/>
+        <v>1350</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="F63" s="18"/>
       <c r="G63" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H63" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="24">
-        <v>1334</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1348</v>
+      </c>
+      <c r="C64" s="24"/>
       <c r="D64" s="2"/>
       <c r="E64" s="16"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1332</v>
-      </c>
-      <c r="C65" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="16"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" ht="198" x14ac:dyDescent="0.25">
+      <c r="G65" s="2"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="16" t="s">
-        <v>144</v>
-      </c>
+      <c r="E66" s="16"/>
       <c r="F66" s="18"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" s="2">
-        <v>1324</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>927</v>
+      </c>
+      <c r="C67" s="24"/>
       <c r="D67" s="2"/>
       <c r="E67" s="16"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" ht="99" x14ac:dyDescent="0.25">
+      <c r="G67" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="2">
-        <v>35</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="24">
+        <v>1334</v>
+      </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="E68" s="16"/>
       <c r="F68" s="18"/>
       <c r="G68" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I68" s="23"/>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1332</v>
+      </c>
+      <c r="C69" s="20"/>
       <c r="D69" s="2"/>
       <c r="E69" s="16"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G69" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="198" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="16"/>
+      <c r="E70" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="F70" s="18"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H70" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1324</v>
+      </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="16"/>
       <c r="F71" s="18"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G71" s="7"/>
+      <c r="H71" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="99" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B72" s="2">
+        <v>35</v>
+      </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="16"/>
+      <c r="E72" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="F72" s="18"/>
-      <c r="G72" s="2"/>
+      <c r="G72" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H72" s="21"/>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I72" s="21"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2231,11 +2574,12 @@
       <c r="F73" s="18"/>
       <c r="G73" s="2"/>
       <c r="H73" s="21"/>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I73" s="21"/>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2244,45 +2588,46 @@
       <c r="F74" s="18"/>
       <c r="G74" s="2"/>
       <c r="H74" s="21"/>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I74" s="21"/>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B75" s="2">
+        <v>132</v>
+      </c>
+      <c r="C75" s="20"/>
       <c r="D75" s="2"/>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G75" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="2">
-        <v>372</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="16"/>
       <c r="F76" s="18"/>
-      <c r="G76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G76" s="2"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2291,11 +2636,12 @@
       <c r="F77" s="18"/>
       <c r="G77" s="2"/>
       <c r="H77" s="21"/>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I77" s="21"/>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2304,11 +2650,12 @@
       <c r="F78" s="18"/>
       <c r="G78" s="2"/>
       <c r="H78" s="21"/>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I78" s="21"/>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2317,24 +2664,34 @@
       <c r="F79" s="18"/>
       <c r="G79" s="2"/>
       <c r="H79" s="21"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I79" s="21"/>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B80" s="2">
+        <v>372</v>
+      </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>43293</v>
+      </c>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I80" s="23"/>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2343,11 +2700,12 @@
       <c r="F81" s="18"/>
       <c r="G81" s="2"/>
       <c r="H81" s="21"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I81" s="21"/>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2356,32 +2714,26 @@
       <c r="F82" s="18"/>
       <c r="G82" s="2"/>
       <c r="H82" s="21"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I82" s="21"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B83" s="2">
-        <v>900</v>
-      </c>
-      <c r="C83" s="20"/>
+        <v>65</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F83" s="18"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2390,24 +2742,28 @@
       <c r="F84" s="18"/>
       <c r="G84" s="2"/>
       <c r="H84" s="21"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I84" s="21"/>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="B85" s="2">
+        <v>569</v>
+      </c>
+      <c r="C85" s="20"/>
       <c r="D85" s="2"/>
       <c r="E85" s="16"/>
       <c r="F85" s="18"/>
       <c r="G85" s="2"/>
       <c r="H85" s="21"/>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I85" s="21"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2416,11 +2772,12 @@
       <c r="F86" s="18"/>
       <c r="G86" s="2"/>
       <c r="H86" s="21"/>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I86" s="21"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2429,24 +2786,34 @@
       <c r="F87" s="18"/>
       <c r="G87" s="2"/>
       <c r="H87" s="21"/>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I87" s="21"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B88" s="2">
+        <v>900</v>
+      </c>
+      <c r="C88" s="20"/>
       <c r="D88" s="2"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F88" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2455,11 +2822,12 @@
       <c r="F89" s="18"/>
       <c r="G89" s="2"/>
       <c r="H89" s="21"/>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I89" s="21"/>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2468,11 +2836,12 @@
       <c r="F90" s="18"/>
       <c r="G90" s="2"/>
       <c r="H90" s="21"/>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I90" s="21"/>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2481,11 +2850,12 @@
       <c r="F91" s="18"/>
       <c r="G91" s="2"/>
       <c r="H91" s="21"/>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I91" s="21"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2494,11 +2864,12 @@
       <c r="F92" s="18"/>
       <c r="G92" s="2"/>
       <c r="H92" s="21"/>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I92" s="21"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2507,24 +2878,34 @@
       <c r="F93" s="18"/>
       <c r="G93" s="2"/>
       <c r="H93" s="21"/>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I93" s="21"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B94" s="2">
+        <v>7</v>
+      </c>
+      <c r="C94" s="20"/>
       <c r="D94" s="2"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F94" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I94" s="23"/>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2533,11 +2914,12 @@
       <c r="F95" s="18"/>
       <c r="G95" s="2"/>
       <c r="H95" s="21"/>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I95" s="21"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2546,11 +2928,12 @@
       <c r="F96" s="18"/>
       <c r="G96" s="2"/>
       <c r="H96" s="21"/>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I96" s="21"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2559,11 +2942,12 @@
       <c r="F97" s="18"/>
       <c r="G97" s="2"/>
       <c r="H97" s="21"/>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I97" s="21"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2572,11 +2956,12 @@
       <c r="F98" s="18"/>
       <c r="G98" s="2"/>
       <c r="H98" s="21"/>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I98" s="21"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2585,11 +2970,12 @@
       <c r="F99" s="18"/>
       <c r="G99" s="2"/>
       <c r="H99" s="21"/>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I99" s="21"/>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2598,11 +2984,12 @@
       <c r="F100" s="18"/>
       <c r="G100" s="2"/>
       <c r="H100" s="21"/>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I100" s="21"/>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2611,11 +2998,12 @@
       <c r="F101" s="18"/>
       <c r="G101" s="2"/>
       <c r="H101" s="21"/>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I101" s="21"/>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2624,11 +3012,12 @@
       <c r="F102" s="18"/>
       <c r="G102" s="2"/>
       <c r="H102" s="21"/>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I102" s="21"/>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2637,30 +3026,26 @@
       <c r="F103" s="18"/>
       <c r="G103" s="2"/>
       <c r="H103" s="21"/>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="I103" s="21"/>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F104" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="18"/>
       <c r="G104" s="2"/>
       <c r="H104" s="21"/>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I104" s="21"/>
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2669,11 +3054,12 @@
       <c r="F105" s="18"/>
       <c r="G105" s="2"/>
       <c r="H105" s="21"/>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I105" s="21"/>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2682,24 +3068,30 @@
       <c r="F106" s="18"/>
       <c r="G106" s="2"/>
       <c r="H106" s="21"/>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I106" s="21"/>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B107" s="2">
+        <v>645</v>
+      </c>
+      <c r="C107" s="24"/>
       <c r="D107" s="2"/>
       <c r="E107" s="16"/>
       <c r="F107" s="18"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="H107" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I107" s="23"/>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2708,37 +3100,52 @@
       <c r="F108" s="18"/>
       <c r="G108" s="2"/>
       <c r="H108" s="21"/>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I108" s="21"/>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="B109" s="2">
+        <v>213</v>
+      </c>
+      <c r="C109" s="24"/>
       <c r="D109" s="2"/>
       <c r="E109" s="16"/>
       <c r="F109" s="18"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I109" s="23"/>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="18"/>
+      <c r="D110" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G110" s="2"/>
       <c r="H110" s="21"/>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I110" s="21"/>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2747,11 +3154,12 @@
       <c r="F111" s="18"/>
       <c r="G111" s="2"/>
       <c r="H111" s="21"/>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I111" s="21"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2760,11 +3168,12 @@
       <c r="F112" s="18"/>
       <c r="G112" s="2"/>
       <c r="H112" s="21"/>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I112" s="21"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2773,11 +3182,12 @@
       <c r="F113" s="18"/>
       <c r="G113" s="2"/>
       <c r="H113" s="21"/>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I113" s="21"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2786,11 +3196,12 @@
       <c r="F114" s="18"/>
       <c r="G114" s="2"/>
       <c r="H114" s="21"/>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I114" s="21"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2799,11 +3210,12 @@
       <c r="F115" s="18"/>
       <c r="G115" s="2"/>
       <c r="H115" s="21"/>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I115" s="21"/>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2812,24 +3224,34 @@
       <c r="F116" s="18"/>
       <c r="G116" s="2"/>
       <c r="H116" s="21"/>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I116" s="21"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="B117" s="2">
+        <v>596</v>
+      </c>
+      <c r="C117" s="24"/>
       <c r="D117" s="2"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="21"/>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F117" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I117" s="23"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2838,11 +3260,12 @@
       <c r="F118" s="18"/>
       <c r="G118" s="2"/>
       <c r="H118" s="21"/>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I118" s="21"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2851,37 +3274,46 @@
       <c r="F119" s="18"/>
       <c r="G119" s="2"/>
       <c r="H119" s="21"/>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I119" s="21"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C120" s="24"/>
       <c r="D120" s="2"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="18"/>
+      <c r="F120" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G120" s="2"/>
-      <c r="H120" s="21"/>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>106</v>
+      <c r="H120" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" s="23"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="16"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="4"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="21"/>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I121" s="21"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2890,11 +3322,12 @@
       <c r="F122" s="18"/>
       <c r="G122" s="2"/>
       <c r="H122" s="21"/>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I122" s="21"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2903,11 +3336,12 @@
       <c r="F123" s="18"/>
       <c r="G123" s="2"/>
       <c r="H123" s="21"/>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I123" s="21"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2916,134 +3350,205 @@
       <c r="F124" s="18"/>
       <c r="G124" s="2"/>
       <c r="H124" s="21"/>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="27" t="s">
-        <v>167</v>
+      <c r="I124" s="21"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B125" s="2">
-        <v>1410</v>
+        <v>702</v>
       </c>
       <c r="C125" s="24"/>
       <c r="D125" s="2"/>
       <c r="E125" s="16"/>
-      <c r="G125" t="s">
-        <v>168</v>
-      </c>
-      <c r="H125" s="12" t="s">
+      <c r="F125" s="18"/>
+      <c r="G125" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H125" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I125" s="23"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="16"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F126" s="18"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="16"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F127" s="18"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="16"/>
-    </row>
-    <row r="129" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F128" s="18"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="16"/>
-    </row>
-    <row r="130" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F129" s="19"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="16"/>
-    </row>
-    <row r="131" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F130" s="18"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="16"/>
-    </row>
-    <row r="132" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F131" s="18"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="16"/>
-    </row>
-    <row r="133" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C133" s="24"/>
       <c r="D133" s="2"/>
       <c r="E133" s="16"/>
-    </row>
-    <row r="134" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>168</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="16"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="16"/>
     </row>
-    <row r="136" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="16"/>
     </row>
-    <row r="137" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="16"/>
     </row>
-    <row r="138" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="16"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="16"/>
     </row>
-    <row r="140" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="16"/>
     </row>
-    <row r="141" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="16"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="16"/>
     </row>
-    <row r="143" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="16"/>
     </row>
-    <row r="144" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -3133,8 +3638,56 @@
       <c r="D158" s="2"/>
       <c r="E158" s="16"/>
     </row>
+    <row r="159" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="16"/>
+    </row>
+    <row r="160" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="16"/>
+    </row>
+    <row r="162" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="16"/>
+    </row>
+    <row r="163" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="16"/>
+    </row>
+    <row r="164" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="16"/>
+    </row>
+    <row r="165" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="16"/>
+    </row>
+    <row r="166" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I124"/>
+  <autoFilter ref="A1:J132"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
@@ -3142,121 +3695,122 @@
     <hyperlink ref="A5" r:id="rId4" tooltip="004. Median of Two Sorted Arrays.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/004. Median of Two Sorted Arrays.txt"/>
     <hyperlink ref="A6" r:id="rId5" tooltip="005. Longest Palindromic Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/005. Longest Palindromic Substring.txt"/>
     <hyperlink ref="A7" r:id="rId6" tooltip="010. Regular Expression Matching.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/010. Regular Expression Matching.txt"/>
-    <hyperlink ref="A8" r:id="rId7" tooltip="013. Roman to Integer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/013. Roman to Integer.txt"/>
-    <hyperlink ref="A9" r:id="rId8" tooltip="015. 3Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/015. 3Sum.txt"/>
-    <hyperlink ref="A10" r:id="rId9" tooltip="017. Letter Combinations of a Phone Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/017. Letter Combinations of a Phone Number.txt"/>
-    <hyperlink ref="A13" r:id="rId10" tooltip="022. Generate Parentheses.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/022. Generate Parentheses.txt"/>
-    <hyperlink ref="A14" r:id="rId11" tooltip="023. Merge k Sorted Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/023. Merge k Sorted Lists.txt"/>
-    <hyperlink ref="A17" r:id="rId12" tooltip="028. Implement strStr().txt" display="https://github.com/pxu/leetcode-pxu/blob/master/028. Implement strStr().txt"/>
-    <hyperlink ref="A18" r:id="rId13" tooltip="033. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/033. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A19" r:id="rId14" tooltip="036. Valid Sudoku.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/036. Valid Sudoku.txt"/>
-    <hyperlink ref="A20" r:id="rId15" tooltip="038. Count and Say.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/038. Count and Say.txt"/>
-    <hyperlink ref="A21" r:id="rId16" tooltip="039. Combination Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/039. Combination Sum.txt"/>
-    <hyperlink ref="A22" r:id="rId17" tooltip="046. Permutations.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/046. Permutations.txt"/>
-    <hyperlink ref="A23" r:id="rId18" tooltip="048. Rotate Image.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/048. Rotate Image.txt"/>
-    <hyperlink ref="A24" r:id="rId19" tooltip="050. Pow(x, n).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/050. Pow(x%2C n).txt"/>
-    <hyperlink ref="A25" r:id="rId20" tooltip="053. Maximum Subarray.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/053. Maximum Subarray.txt"/>
-    <hyperlink ref="A26" r:id="rId21" tooltip="056. Merge Intervals.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/056. Merge Intervals.txt"/>
-    <hyperlink ref="A27" r:id="rId22" tooltip="070. Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/070. Climbing Stairs.txt"/>
-    <hyperlink ref="A28" r:id="rId23" tooltip="071. Simplify Path.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/071. Simplify Path.txt"/>
-    <hyperlink ref="A29" r:id="rId24" tooltip="076. Minimum Window Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/076. Minimum Window Substring.txt"/>
-    <hyperlink ref="A30" r:id="rId25" tooltip="078. Subsets.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/078. Subsets.txt"/>
-    <hyperlink ref="A31" r:id="rId26" tooltip="079. Word Search.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/079. Word Search.txt"/>
-    <hyperlink ref="A33" r:id="rId27" tooltip="089. Gray Code.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/089. Gray Code.txt"/>
-    <hyperlink ref="A34" r:id="rId28" tooltip="092. Reverse Linked List II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/092. Reverse Linked List II.txt"/>
-    <hyperlink ref="A36" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
-    <hyperlink ref="A37" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
-    <hyperlink ref="A38" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
-    <hyperlink ref="A39" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
-    <hyperlink ref="A40" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
-    <hyperlink ref="A41" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
-    <hyperlink ref="A42" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
-    <hyperlink ref="A43" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
-    <hyperlink ref="A44" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
-    <hyperlink ref="A46" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
-    <hyperlink ref="A47" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
-    <hyperlink ref="A48" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
-    <hyperlink ref="A49" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
-    <hyperlink ref="A50" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
-    <hyperlink ref="A51" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
-    <hyperlink ref="A52" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
-    <hyperlink ref="A54" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A55" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
-    <hyperlink ref="A56" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
-    <hyperlink ref="A57" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
-    <hyperlink ref="A58" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
-    <hyperlink ref="A59" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
-    <hyperlink ref="A61" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
-    <hyperlink ref="A62" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
-    <hyperlink ref="A63" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
-    <hyperlink ref="A66" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
-    <hyperlink ref="A67" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
-    <hyperlink ref="A68" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
-    <hyperlink ref="A69" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
-    <hyperlink ref="A70" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
-    <hyperlink ref="A71" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
-    <hyperlink ref="A72" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
-    <hyperlink ref="A73" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
-    <hyperlink ref="A74" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
-    <hyperlink ref="A75" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
-    <hyperlink ref="A77" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
-    <hyperlink ref="A78" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
-    <hyperlink ref="A79" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
-    <hyperlink ref="A80" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
-    <hyperlink ref="A81" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
-    <hyperlink ref="A82" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
-    <hyperlink ref="A83" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
-    <hyperlink ref="A84" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
-    <hyperlink ref="A85" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
-    <hyperlink ref="A86" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
-    <hyperlink ref="A87" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
-    <hyperlink ref="A88" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
-    <hyperlink ref="A89" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
-    <hyperlink ref="A90" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
-    <hyperlink ref="A91" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
-    <hyperlink ref="A92" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
-    <hyperlink ref="A93" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
-    <hyperlink ref="A94" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A95" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
-    <hyperlink ref="A96" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
-    <hyperlink ref="A97" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
-    <hyperlink ref="A98" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
-    <hyperlink ref="A99" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
-    <hyperlink ref="A100" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
-    <hyperlink ref="A101" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
-    <hyperlink ref="A102" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
-    <hyperlink ref="A103" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A105" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A106" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A107" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A108" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A109" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A110" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A111" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A112" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A113" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A114" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A115" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A116" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A117" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A118" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A119" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A120" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A121" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A122" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A123" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A124" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
-    <hyperlink ref="H67" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="H41" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="A76" r:id="rId113"/>
-    <hyperlink ref="A104" r:id="rId114"/>
-    <hyperlink ref="A45" r:id="rId115"/>
-    <hyperlink ref="A125" r:id="rId116"/>
-    <hyperlink ref="A64" r:id="rId117"/>
-    <hyperlink ref="A65" r:id="rId118"/>
+    <hyperlink ref="A9" r:id="rId7" tooltip="013. Roman to Integer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/013. Roman to Integer.txt"/>
+    <hyperlink ref="A10" r:id="rId8" tooltip="015. 3Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/015. 3Sum.txt"/>
+    <hyperlink ref="A11" r:id="rId9" tooltip="017. Letter Combinations of a Phone Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/017. Letter Combinations of a Phone Number.txt"/>
+    <hyperlink ref="A14" r:id="rId10" tooltip="022. Generate Parentheses.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/022. Generate Parentheses.txt"/>
+    <hyperlink ref="A15" r:id="rId11" tooltip="023. Merge k Sorted Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/023. Merge k Sorted Lists.txt"/>
+    <hyperlink ref="A18" r:id="rId12" tooltip="028. Implement strStr().txt" display="https://github.com/pxu/leetcode-pxu/blob/master/028. Implement strStr().txt"/>
+    <hyperlink ref="A19" r:id="rId13" tooltip="033. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/033. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A20" r:id="rId14" tooltip="036. Valid Sudoku.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/036. Valid Sudoku.txt"/>
+    <hyperlink ref="A21" r:id="rId15" tooltip="038. Count and Say.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/038. Count and Say.txt"/>
+    <hyperlink ref="A22" r:id="rId16" tooltip="039. Combination Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/039. Combination Sum.txt"/>
+    <hyperlink ref="A23" r:id="rId17" tooltip="046. Permutations.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/046. Permutations.txt"/>
+    <hyperlink ref="A24" r:id="rId18" tooltip="048. Rotate Image.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/048. Rotate Image.txt"/>
+    <hyperlink ref="A25" r:id="rId19" tooltip="050. Pow(x, n).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/050. Pow(x%2C n).txt"/>
+    <hyperlink ref="A26" r:id="rId20" tooltip="053. Maximum Subarray.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/053. Maximum Subarray.txt"/>
+    <hyperlink ref="A28" r:id="rId21" tooltip="056. Merge Intervals.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/056. Merge Intervals.txt"/>
+    <hyperlink ref="A29" r:id="rId22" tooltip="070. Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/070. Climbing Stairs.txt"/>
+    <hyperlink ref="A30" r:id="rId23" tooltip="071. Simplify Path.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/071. Simplify Path.txt"/>
+    <hyperlink ref="A31" r:id="rId24" tooltip="076. Minimum Window Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/076. Minimum Window Substring.txt"/>
+    <hyperlink ref="A32" r:id="rId25" tooltip="078. Subsets.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/078. Subsets.txt"/>
+    <hyperlink ref="A33" r:id="rId26" tooltip="079. Word Search.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/079. Word Search.txt"/>
+    <hyperlink ref="A35" r:id="rId27" tooltip="089. Gray Code.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/089. Gray Code.txt"/>
+    <hyperlink ref="A37" r:id="rId28" tooltip="092. Reverse Linked List II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/092. Reverse Linked List II.txt"/>
+    <hyperlink ref="A39" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
+    <hyperlink ref="A40" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
+    <hyperlink ref="A41" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
+    <hyperlink ref="A42" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
+    <hyperlink ref="A43" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
+    <hyperlink ref="A44" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
+    <hyperlink ref="A45" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
+    <hyperlink ref="A46" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
+    <hyperlink ref="A47" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
+    <hyperlink ref="A49" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
+    <hyperlink ref="A50" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
+    <hyperlink ref="A51" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
+    <hyperlink ref="A52" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
+    <hyperlink ref="A53" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
+    <hyperlink ref="A54" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
+    <hyperlink ref="A56" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
+    <hyperlink ref="A58" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A59" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
+    <hyperlink ref="A60" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
+    <hyperlink ref="A61" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
+    <hyperlink ref="A62" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
+    <hyperlink ref="A63" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
+    <hyperlink ref="A65" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
+    <hyperlink ref="A66" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
+    <hyperlink ref="A67" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
+    <hyperlink ref="A70" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
+    <hyperlink ref="A71" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
+    <hyperlink ref="A72" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
+    <hyperlink ref="A73" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
+    <hyperlink ref="A74" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
+    <hyperlink ref="A75" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
+    <hyperlink ref="A76" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
+    <hyperlink ref="A77" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
+    <hyperlink ref="A78" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
+    <hyperlink ref="A79" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
+    <hyperlink ref="A81" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
+    <hyperlink ref="A82" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
+    <hyperlink ref="A83" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
+    <hyperlink ref="A84" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
+    <hyperlink ref="A86" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
+    <hyperlink ref="A87" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
+    <hyperlink ref="A88" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
+    <hyperlink ref="A89" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
+    <hyperlink ref="A90" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
+    <hyperlink ref="A91" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
+    <hyperlink ref="A92" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
+    <hyperlink ref="A93" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
+    <hyperlink ref="A94" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
+    <hyperlink ref="A95" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
+    <hyperlink ref="A96" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
+    <hyperlink ref="A97" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
+    <hyperlink ref="A98" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
+    <hyperlink ref="A99" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A100" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
+    <hyperlink ref="A101" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
+    <hyperlink ref="A102" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
+    <hyperlink ref="A103" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
+    <hyperlink ref="A104" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
+    <hyperlink ref="A105" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
+    <hyperlink ref="A106" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
+    <hyperlink ref="A107" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
+    <hyperlink ref="A108" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
+    <hyperlink ref="A111" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="A112" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="A113" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="A114" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="A115" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="A116" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="A118" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="A119" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="A120" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="A121" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="A122" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="A123" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="A124" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="A126" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="A127" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="A128" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="A129" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="A130" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="A131" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="A132" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="H71" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="H44" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="A80" r:id="rId113"/>
+    <hyperlink ref="A110" r:id="rId114"/>
+    <hyperlink ref="A48" r:id="rId115"/>
+    <hyperlink ref="A133" r:id="rId116"/>
+    <hyperlink ref="A68" r:id="rId117"/>
+    <hyperlink ref="A69" r:id="rId118"/>
+    <hyperlink ref="H58" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId119"/>
+  <pageSetup orientation="portrait" r:id="rId120"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
@@ -3264,7 +3818,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F30</xm:sqref>
+          <xm:sqref>F32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$143</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="260">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -606,9 +606,6 @@
     <t>702. Concatenated String with Uncommon Characters of Two Strings.txt</t>
   </si>
   <si>
-    <t>StringHash,Table</t>
-  </si>
-  <si>
     <t>596. Minimum Subtree</t>
   </si>
   <si>
@@ -761,6 +758,127 @@
   </si>
   <si>
     <t>Time Complexity O(n), Space Complexity O(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time O(nklgk), space O(1) - merge
+time O(nklgk), space O(k) - priorityQueue </t>
+  </si>
+  <si>
+    <t>check node is empty using priorityqueue</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum.txt</t>
+  </si>
+  <si>
+    <t>bottom up</t>
+  </si>
+  <si>
+    <t>Microsoft,Baidu</t>
+  </si>
+  <si>
+    <t>Recursion,DP</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>Microsoft,Google</t>
+  </si>
+  <si>
+    <t>LinkedIn,Facebook,Uber,Microsoft,Bloomberg</t>
+  </si>
+  <si>
+    <t>Binary Search,Array,Sorted Array</t>
+  </si>
+  <si>
+    <t>Microsoft,LinkedIn</t>
+  </si>
+  <si>
+    <t>Recursion,Backtrack</t>
+  </si>
+  <si>
+    <t>47. Permutations II.txt</t>
+  </si>
+  <si>
+    <t>Recursion,DFS</t>
+  </si>
+  <si>
+    <t>438. Find All Anagrams in a String.txt</t>
+  </si>
+  <si>
+    <t>Two Pointers,Slinding Window</t>
+  </si>
+  <si>
+    <t>Hash Table,Two Pointers,Sliding Window</t>
+  </si>
+  <si>
+    <t>300. Longest Increasing Subsequence.txt</t>
+  </si>
+  <si>
+    <t>Binary Search,DP</t>
+  </si>
+  <si>
+    <t>1409. Matrix Finding Number.txt</t>
+  </si>
+  <si>
+    <t>String,Hash Table</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>come back later</t>
+  </si>
+  <si>
+    <t>lintcode 1403</t>
+  </si>
+  <si>
+    <t>used extra variable int right = 1</t>
+  </si>
+  <si>
+    <t>Microsoft,Amazon,Apple,Facebook,LinkedIn</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Bézout's identity</t>
+  </si>
+  <si>
+    <t>513. Find Bottom Left Tree Value</t>
+  </si>
+  <si>
+    <t>bfs</t>
+  </si>
+  <si>
+    <t>452. Minimum Number of Arrows to Burst Balloons.txt</t>
+  </si>
+  <si>
+    <t>198. House Robber</t>
+  </si>
+  <si>
+    <t>Airbnb,LinkedIn</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>213. House Robber II</t>
+  </si>
+  <si>
+    <t>055. Jump Game</t>
+  </si>
+  <si>
+    <t>Greedy,Dynamic Programming(DP,)Array</t>
+  </si>
+  <si>
+    <t>045. Jump Game II.txt</t>
+  </si>
+  <si>
+    <t>NetEase</t>
+  </si>
+  <si>
+    <t>Greedy,Array,DP</t>
   </si>
 </sst>
 </file>
@@ -880,7 +998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -918,6 +1036,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -926,7 +1070,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -996,7 +1140,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1148,37 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1290,11 +1464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1510,7 @@
         <v>113</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>114</v>
@@ -1435,7 +1609,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="2">
         <v>418</v>
@@ -1450,7 +1624,7 @@
         <v>122</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="7"/>
@@ -1468,7 +1642,7 @@
         <v>122</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="7"/>
@@ -1501,10 +1675,10 @@
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
       <c r="G11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="7"/>
@@ -1565,18 +1739,26 @@
       <c r="I14" s="21"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="2">
+        <v>104</v>
+      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="23" t="s">
+        <v>220</v>
+      </c>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -1637,17 +1819,25 @@
       <c r="I18" s="23"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2">
+        <v>62</v>
+      </c>
+      <c r="C19" s="20"/>
       <c r="D19" s="2"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="21"/>
+      <c r="F19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>228</v>
+      </c>
       <c r="I19" s="21"/>
       <c r="J19" s="7"/>
     </row>
@@ -1695,165 +1885,189 @@
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="2"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>258</v>
+      </c>
       <c r="I23" s="21"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="16" t="s">
-        <v>212</v>
-      </c>
+      <c r="E24" s="16"/>
       <c r="F24" s="18" t="s">
         <v>137</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="I24" s="23"/>
+        <v>230</v>
+      </c>
+      <c r="I24" s="21"/>
       <c r="J24" s="7"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="B25" s="2">
+        <v>16</v>
+      </c>
+      <c r="C25" s="20"/>
       <c r="D25" s="2"/>
       <c r="E25" s="16"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>230</v>
+      </c>
       <c r="I25" s="21"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B26" s="2">
+        <v>161</v>
+      </c>
+      <c r="C26" s="20"/>
       <c r="D26" s="2"/>
       <c r="E26" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="26"/>
+        <v>211</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="2">
-        <v>374</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="16" t="s">
-        <v>210</v>
-      </c>
+      <c r="E27" s="16"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+      <c r="G27" s="2"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2">
-        <v>156</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="16" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="7"/>
+      <c r="G28" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="B29" s="2">
+        <v>374</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>209</v>
+      </c>
       <c r="F29" s="18"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="396" x14ac:dyDescent="0.25">
+      <c r="G29" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="B30" s="2">
+        <v>116</v>
+      </c>
+      <c r="C30" s="20"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="16" t="s">
-        <v>211</v>
-      </c>
+      <c r="E30" s="16"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G30" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>156</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="F31" s="18"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1865,47 +2079,39 @@
       <c r="I32" s="21"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="396" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="2">
-        <v>123</v>
-      </c>
-      <c r="C33" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="16" t="s">
+        <v>210</v>
+      </c>
       <c r="F33" s="18"/>
-      <c r="G33" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="I33" s="23"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="24"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="16"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="I34" s="23"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
       <c r="J34" s="7"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1919,51 +2125,49 @@
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2">
-        <v>512</v>
-      </c>
-      <c r="C36" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="C36" s="24"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="2"/>
       <c r="E37" s="16"/>
       <c r="F37" s="18"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="G37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="23"/>
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="16"/>
       <c r="F38" s="18"/>
       <c r="G38" s="2"/>
@@ -1973,59 +2177,61 @@
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="B39" s="2">
+        <v>512</v>
+      </c>
+      <c r="C39" s="20"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="E39" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="2">
-        <v>1360</v>
-      </c>
-      <c r="C40" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="16"/>
       <c r="F40" s="18"/>
-      <c r="G40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="23"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2">
+        <v>43293</v>
+      </c>
       <c r="E41" s="16"/>
       <c r="F41" s="18"/>
-      <c r="G41" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="I41" s="23"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2037,49 +2243,47 @@
       <c r="I42" s="21"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1360</v>
+      </c>
+      <c r="C43" s="24"/>
       <c r="D43" s="2"/>
       <c r="E43" s="16"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="G43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="23"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="2">
-        <v>453</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I44" s="29"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I44" s="23"/>
       <c r="J44" s="7"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2091,79 +2295,83 @@
       <c r="I45" s="21"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="2">
-        <v>149</v>
-      </c>
-      <c r="C46" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="H46" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I46" s="23"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B47" s="2">
+        <v>453</v>
+      </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
+      <c r="D47" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" s="28"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="2">
-        <v>415</v>
-      </c>
-      <c r="C48" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="16"/>
-      <c r="F48" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="23"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B49" s="2">
+        <v>149</v>
+      </c>
+      <c r="C49" s="24"/>
       <c r="D49" s="2"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
+      <c r="G49" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I49" s="23"/>
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2177,35 +2385,53 @@
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="B51" s="2">
+        <v>94</v>
+      </c>
+      <c r="C51" s="24"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="21"/>
+      <c r="E51" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>224</v>
+      </c>
       <c r="I51" s="21"/>
       <c r="J51" s="7"/>
     </row>
     <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="B52" s="2">
+        <v>415</v>
+      </c>
+      <c r="C52" s="24"/>
       <c r="D52" s="2"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
+      <c r="F52" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I52" s="23"/>
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2217,51 +2443,37 @@
       <c r="I53" s="21"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="2">
-        <v>105</v>
-      </c>
-      <c r="C54" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>220</v>
-      </c>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="F55" s="18"/>
       <c r="G55" s="2"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2273,65 +2485,65 @@
       <c r="I56" s="21"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="2">
-        <v>53</v>
-      </c>
-      <c r="C57" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="23"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="18"/>
+      <c r="E58" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G58" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="I58" s="30"/>
+        <v>217</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2343,118 +2555,122 @@
       <c r="I60" s="21"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="B61" s="2">
-        <v>380</v>
-      </c>
-      <c r="C61" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="C61" s="20"/>
       <c r="D61" s="2"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="18"/>
+      <c r="F61" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="G61" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B62" s="2">
+        <v>159</v>
+      </c>
+      <c r="C62" s="20"/>
       <c r="D62" s="2"/>
       <c r="E62" s="16"/>
       <c r="F62" s="18"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="G62" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I62" s="29"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="2">
-        <v>1350</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>123</v>
-      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="16"/>
       <c r="F63" s="18"/>
-      <c r="G63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I63" s="23"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1348</v>
-      </c>
-      <c r="C64" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="16"/>
       <c r="F64" s="18"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I64" s="23"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B65" s="2">
+        <v>380</v>
+      </c>
+      <c r="C65" s="24"/>
       <c r="D65" s="2"/>
       <c r="E65" s="16"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
+      <c r="G65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" s="23"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="2"/>
       <c r="E66" s="16"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
+      <c r="G66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="I66" s="23"/>
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B67" s="2">
-        <v>927</v>
-      </c>
-      <c r="C67" s="24"/>
+        <v>1352</v>
+      </c>
+      <c r="C67" s="20"/>
       <c r="D67" s="2"/>
       <c r="E67" s="16"/>
       <c r="F67" s="18"/>
@@ -2462,200 +2678,218 @@
         <v>122</v>
       </c>
       <c r="H67" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="I67" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="I67" s="21"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="24">
-        <v>1334</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="16"/>
+        <v>49</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1350</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="F68" s="18"/>
       <c r="G68" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="I68" s="23"/>
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B69" s="2">
-        <v>1332</v>
-      </c>
-      <c r="C69" s="20"/>
+        <v>1348</v>
+      </c>
+      <c r="C69" s="24"/>
       <c r="D69" s="2"/>
       <c r="E69" s="16"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="G69" s="2"/>
       <c r="H69" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" ht="198" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="16" t="s">
-        <v>144</v>
-      </c>
+      <c r="E70" s="16"/>
       <c r="F70" s="18"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="I70" s="23"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="2">
-        <v>1324</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="16"/>
       <c r="F71" s="18"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B72" s="2">
-        <v>35</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>927</v>
+      </c>
+      <c r="C72" s="24"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="16" t="s">
-        <v>134</v>
-      </c>
+      <c r="E72" s="16"/>
       <c r="F72" s="18"/>
       <c r="G72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72" s="23"/>
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="24">
+        <v>1334</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="16"/>
       <c r="F73" s="18"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
+      <c r="G73" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I73" s="23"/>
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1332</v>
+      </c>
+      <c r="C74" s="20"/>
       <c r="D74" s="2"/>
       <c r="E74" s="16"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
+      <c r="G74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I74" s="23"/>
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="2">
-        <v>132</v>
-      </c>
-      <c r="C75" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="24"/>
       <c r="D75" s="2"/>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
       <c r="G75" s="2" t="s">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>199</v>
+        <v>252</v>
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="198" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="16"/>
+      <c r="E76" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="F76" s="18"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="H76" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I76" s="23"/>
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1324</v>
+      </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="16"/>
       <c r="F77" s="18"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="21"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="I77" s="21"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="99" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B78" s="2">
+        <v>35</v>
+      </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="16"/>
+      <c r="E78" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="F78" s="18"/>
-      <c r="G78" s="2"/>
+      <c r="G78" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="7"/>
     </row>
     <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2669,57 +2903,57 @@
     </row>
     <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="2">
-        <v>372</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
-      <c r="G80" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I80" s="23"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
       <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B81" s="2">
+        <v>132</v>
+      </c>
+      <c r="C81" s="20"/>
       <c r="D81" s="2"/>
       <c r="E81" s="16"/>
       <c r="F81" s="18"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
+      <c r="G81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="I81" s="23"/>
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="B82" s="2">
+        <v>534</v>
+      </c>
+      <c r="C82" s="20"/>
       <c r="D82" s="2"/>
       <c r="E82" s="16"/>
       <c r="F82" s="18"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2733,26 +2967,28 @@
     </row>
     <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="16"/>
       <c r="F84" s="18"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="21"/>
+      <c r="G84" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I84" s="21"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B85" s="2">
-        <v>569</v>
-      </c>
-      <c r="C85" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="16"/>
       <c r="F85" s="18"/>
@@ -2763,7 +2999,7 @@
     </row>
     <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2777,43 +3013,51 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B87" s="2">
+        <v>372</v>
+      </c>
       <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="D87" s="2">
+        <v>43293</v>
+      </c>
       <c r="E87" s="16"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
+      <c r="G87" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I87" s="23"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B88" s="2">
-        <v>900</v>
-      </c>
-      <c r="C88" s="20"/>
+        <v>1310</v>
+      </c>
+      <c r="C88" s="42"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="E88" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F88" s="18"/>
       <c r="G88" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I88" s="23"/>
+        <v>245</v>
+      </c>
+      <c r="I88" s="21"/>
       <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2827,7 +3071,7 @@
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2841,7 +3085,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2855,10 +3099,12 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B92" s="2">
+        <v>569</v>
+      </c>
+      <c r="C92" s="20"/>
       <c r="D92" s="2"/>
       <c r="E92" s="16"/>
       <c r="F92" s="18"/>
@@ -2869,7 +3115,7 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2881,45 +3127,45 @@
       <c r="I93" s="21"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B94" s="2">
-        <v>7</v>
-      </c>
-      <c r="C94" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="23"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
       <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B95" s="2">
+        <v>900</v>
+      </c>
+      <c r="C95" s="20"/>
       <c r="D95" s="2"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="21"/>
+      <c r="F95" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I95" s="23"/>
       <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2933,7 +3179,7 @@
     </row>
     <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2947,7 +3193,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2961,7 +3207,7 @@
     </row>
     <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2975,7 +3221,7 @@
     </row>
     <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2987,37 +3233,53 @@
       <c r="I100" s="21"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B101" s="2">
+        <v>7</v>
+      </c>
+      <c r="C101" s="20"/>
       <c r="D101" s="2"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="21"/>
-      <c r="I101" s="21"/>
+      <c r="F101" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I101" s="23"/>
       <c r="J101" s="7"/>
     </row>
     <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="B102" s="2">
+        <v>76</v>
+      </c>
+      <c r="C102" s="20"/>
       <c r="D102" s="2"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="21"/>
-      <c r="I102" s="21"/>
+      <c r="F102" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I102" s="23"/>
       <c r="J102" s="7"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3031,7 +3293,7 @@
     </row>
     <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3045,7 +3307,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3059,7 +3321,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3073,25 +3335,23 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B107" s="2">
-        <v>645</v>
+        <v>62</v>
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="2"/>
       <c r="E107" s="16"/>
       <c r="F107" s="18"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I107" s="23"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
       <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3103,41 +3363,29 @@
       <c r="I108" s="21"/>
       <c r="J108" s="7"/>
     </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B109" s="2">
-        <v>213</v>
-      </c>
-      <c r="C109" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="16"/>
       <c r="F109" s="18"/>
-      <c r="G109" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="I109" s="23"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
       <c r="J109" s="7"/>
     </row>
-    <row r="110" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F110" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="18"/>
       <c r="G110" s="2"/>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
@@ -3145,7 +3393,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3159,7 +3407,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3173,21 +3421,29 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1277</v>
+      </c>
+      <c r="C113" s="20"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="16"/>
+      <c r="E113" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="F113" s="18"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="21"/>
+      <c r="G113" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I113" s="21"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3201,21 +3457,25 @@
     </row>
     <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B115" s="2">
+        <v>645</v>
+      </c>
+      <c r="C115" s="24"/>
       <c r="D115" s="2"/>
       <c r="E115" s="16"/>
       <c r="F115" s="18"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
+      <c r="H115" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I115" s="23"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3227,79 +3487,83 @@
       <c r="I116" s="21"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="B117" s="2">
-        <v>596</v>
-      </c>
-      <c r="C117" s="24"/>
+        <v>647</v>
+      </c>
+      <c r="C117" s="20"/>
       <c r="D117" s="2"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="I117" s="23"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="B118" s="2">
+        <v>213</v>
+      </c>
+      <c r="C118" s="24"/>
       <c r="D118" s="2"/>
       <c r="E118" s="16"/>
       <c r="F118" s="18"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
+      <c r="G118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I118" s="23"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="18"/>
+      <c r="D119" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" s="2">
-        <v>1106</v>
-      </c>
-      <c r="C120" s="24"/>
+        <v>250</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="20"/>
       <c r="D120" s="2"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="F120" s="18"/>
       <c r="G120" s="2"/>
       <c r="H120" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I120" s="23"/>
+      <c r="I120" s="21"/>
       <c r="J120" s="7"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3313,7 +3577,7 @@
     </row>
     <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3327,21 +3591,27 @@
     </row>
     <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1197</v>
+      </c>
+      <c r="C123" s="24"/>
       <c r="D123" s="2"/>
       <c r="E123" s="16"/>
       <c r="F123" s="18"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="21"/>
+      <c r="G123" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I123" s="21"/>
       <c r="J123" s="7"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3349,33 +3619,32 @@
       <c r="E124" s="16"/>
       <c r="F124" s="18"/>
       <c r="G124" s="2"/>
-      <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="B125" s="2">
-        <v>702</v>
-      </c>
-      <c r="C125" s="24"/>
+        <v>1169</v>
+      </c>
+      <c r="C125" s="20"/>
       <c r="D125" s="2"/>
       <c r="E125" s="16"/>
       <c r="F125" s="18"/>
       <c r="G125" s="2" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="H125" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I125" s="23"/>
+      <c r="I125" s="21"/>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3389,7 +3658,7 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3401,37 +3670,45 @@
       <c r="I127" s="21"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="B128" s="2">
+        <v>596</v>
+      </c>
+      <c r="C128" s="24"/>
       <c r="D128" s="2"/>
       <c r="E128" s="16"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
+      <c r="F128" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I128" s="23"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>106</v>
+      <c r="A129" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="4"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3445,21 +3722,27 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C131" s="24"/>
       <c r="D131" s="2"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="18"/>
+      <c r="F131" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G131" s="2"/>
-      <c r="H131" s="21"/>
-      <c r="I131" s="21"/>
+      <c r="H131" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I131" s="23"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3472,222 +3755,455 @@
       <c r="J132" s="7"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C133" s="24"/>
+      <c r="A133" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="16"/>
-      <c r="G133" t="s">
-        <v>168</v>
-      </c>
-      <c r="H133" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="F133" s="18"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="16"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="16"/>
-    </row>
-    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="21"/>
+      <c r="I135" s="21"/>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="2">
+        <v>702</v>
+      </c>
+      <c r="C136" s="24"/>
       <c r="D136" s="2"/>
       <c r="E136" s="16"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I136" s="23"/>
+      <c r="J136" s="7"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="16"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="16"/>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="34"/>
+      <c r="J138" s="35"/>
+    </row>
+    <row r="139" spans="1:10" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="16"/>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F139" s="18"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="21"/>
+      <c r="I139" s="21"/>
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="16"/>
-    </row>
-    <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F140" s="19"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="21"/>
+      <c r="I140" s="21"/>
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="16"/>
-    </row>
-    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F141" s="18"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="16"/>
-    </row>
-    <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F142" s="18"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="7"/>
+    </row>
+    <row r="143" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="16"/>
-    </row>
-    <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="21"/>
+      <c r="I143" s="21"/>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1409</v>
+      </c>
+      <c r="C144" s="20"/>
       <c r="D144" s="2"/>
       <c r="E144" s="16"/>
-    </row>
-    <row r="145" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H144" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I144" s="21"/>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C145" s="24"/>
       <c r="D145" s="2"/>
       <c r="E145" s="16"/>
-    </row>
-    <row r="146" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F145" s="40"/>
+      <c r="G145" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H145" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I145" s="41"/>
+    </row>
+    <row r="146" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="16"/>
-    </row>
-    <row r="147" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F146" s="40"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+    </row>
+    <row r="147" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="16"/>
-    </row>
-    <row r="148" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F147" s="40"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+    </row>
+    <row r="148" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="16"/>
-    </row>
-    <row r="149" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F148" s="40"/>
+      <c r="H148" s="41"/>
+      <c r="I148" s="41"/>
+    </row>
+    <row r="149" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="16"/>
-    </row>
-    <row r="150" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F149" s="40"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="41"/>
+    </row>
+    <row r="150" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="16"/>
-    </row>
-    <row r="151" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F150" s="40"/>
+      <c r="H150" s="41"/>
+      <c r="I150" s="41"/>
+    </row>
+    <row r="151" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="16"/>
-    </row>
-    <row r="152" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F151" s="40"/>
+      <c r="H151" s="41"/>
+      <c r="I151" s="41"/>
+    </row>
+    <row r="152" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="16"/>
-    </row>
-    <row r="153" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F152" s="40"/>
+      <c r="H152" s="41"/>
+      <c r="I152" s="41"/>
+    </row>
+    <row r="153" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="16"/>
-    </row>
-    <row r="154" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F153" s="40"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="41"/>
+    </row>
+    <row r="154" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="16"/>
-    </row>
-    <row r="155" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F154" s="40"/>
+      <c r="H154" s="41"/>
+      <c r="I154" s="41"/>
+    </row>
+    <row r="155" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="16"/>
-    </row>
-    <row r="156" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F155" s="40"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+    </row>
+    <row r="156" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="16"/>
-    </row>
-    <row r="157" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F156" s="40"/>
+      <c r="H156" s="41"/>
+      <c r="I156" s="41"/>
+    </row>
+    <row r="157" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="16"/>
-    </row>
-    <row r="158" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F157" s="40"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="41"/>
+    </row>
+    <row r="158" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="16"/>
-    </row>
-    <row r="159" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F158" s="40"/>
+      <c r="H158" s="41"/>
+      <c r="I158" s="41"/>
+    </row>
+    <row r="159" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="16"/>
-    </row>
-    <row r="160" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F159" s="40"/>
+      <c r="H159" s="41"/>
+      <c r="I159" s="41"/>
+    </row>
+    <row r="160" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="16"/>
-    </row>
-    <row r="161" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F160" s="40"/>
+      <c r="H160" s="41"/>
+      <c r="I160" s="41"/>
+    </row>
+    <row r="161" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="16"/>
-    </row>
-    <row r="162" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F161" s="40"/>
+      <c r="H161" s="41"/>
+      <c r="I161" s="41"/>
+    </row>
+    <row r="162" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="16"/>
-    </row>
-    <row r="163" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="16"/>
-    </row>
-    <row r="164" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F162" s="40"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="41"/>
+    </row>
+    <row r="163" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B163" s="36"/>
+      <c r="C163" s="36"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="37"/>
+    </row>
+    <row r="164" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="16"/>
     </row>
-    <row r="165" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="16"/>
     </row>
-    <row r="166" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="16"/>
     </row>
+    <row r="167" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="16"/>
+    </row>
+    <row r="168" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="16"/>
+    </row>
+    <row r="169" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="16"/>
+    </row>
+    <row r="170" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="16"/>
+    </row>
+    <row r="171" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="16"/>
+    </row>
+    <row r="172" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="16"/>
+    </row>
+    <row r="173" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="16"/>
+    </row>
+    <row r="174" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="16"/>
+    </row>
+    <row r="175" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="16"/>
+    </row>
+    <row r="176" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="16"/>
+    </row>
+    <row r="178" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J132"/>
+  <autoFilter ref="A1:J143"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
@@ -3705,109 +4221,109 @@
     <hyperlink ref="A20" r:id="rId14" tooltip="036. Valid Sudoku.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/036. Valid Sudoku.txt"/>
     <hyperlink ref="A21" r:id="rId15" tooltip="038. Count and Say.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/038. Count and Say.txt"/>
     <hyperlink ref="A22" r:id="rId16" tooltip="039. Combination Sum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/039. Combination Sum.txt"/>
-    <hyperlink ref="A23" r:id="rId17" tooltip="046. Permutations.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/046. Permutations.txt"/>
-    <hyperlink ref="A24" r:id="rId18" tooltip="048. Rotate Image.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/048. Rotate Image.txt"/>
-    <hyperlink ref="A25" r:id="rId19" tooltip="050. Pow(x, n).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/050. Pow(x%2C n).txt"/>
-    <hyperlink ref="A26" r:id="rId20" tooltip="053. Maximum Subarray.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/053. Maximum Subarray.txt"/>
-    <hyperlink ref="A28" r:id="rId21" tooltip="056. Merge Intervals.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/056. Merge Intervals.txt"/>
-    <hyperlink ref="A29" r:id="rId22" tooltip="070. Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/070. Climbing Stairs.txt"/>
-    <hyperlink ref="A30" r:id="rId23" tooltip="071. Simplify Path.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/071. Simplify Path.txt"/>
-    <hyperlink ref="A31" r:id="rId24" tooltip="076. Minimum Window Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/076. Minimum Window Substring.txt"/>
-    <hyperlink ref="A32" r:id="rId25" tooltip="078. Subsets.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/078. Subsets.txt"/>
-    <hyperlink ref="A33" r:id="rId26" tooltip="079. Word Search.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/079. Word Search.txt"/>
-    <hyperlink ref="A35" r:id="rId27" tooltip="089. Gray Code.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/089. Gray Code.txt"/>
-    <hyperlink ref="A37" r:id="rId28" tooltip="092. Reverse Linked List II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/092. Reverse Linked List II.txt"/>
-    <hyperlink ref="A39" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
-    <hyperlink ref="A40" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
-    <hyperlink ref="A41" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
-    <hyperlink ref="A42" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
-    <hyperlink ref="A43" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
-    <hyperlink ref="A44" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
-    <hyperlink ref="A45" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
-    <hyperlink ref="A46" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
-    <hyperlink ref="A47" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
-    <hyperlink ref="A49" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
-    <hyperlink ref="A50" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
-    <hyperlink ref="A51" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
-    <hyperlink ref="A52" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
-    <hyperlink ref="A53" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
-    <hyperlink ref="A54" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
-    <hyperlink ref="A56" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
-    <hyperlink ref="A58" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A59" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
-    <hyperlink ref="A60" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
-    <hyperlink ref="A61" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
-    <hyperlink ref="A62" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
-    <hyperlink ref="A63" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
-    <hyperlink ref="A65" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
-    <hyperlink ref="A66" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
-    <hyperlink ref="A67" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
-    <hyperlink ref="A70" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
-    <hyperlink ref="A71" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
-    <hyperlink ref="A72" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
-    <hyperlink ref="A73" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
-    <hyperlink ref="A74" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
-    <hyperlink ref="A75" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
-    <hyperlink ref="A76" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
-    <hyperlink ref="A77" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
-    <hyperlink ref="A78" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
-    <hyperlink ref="A79" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
-    <hyperlink ref="A81" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
-    <hyperlink ref="A82" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
-    <hyperlink ref="A83" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
-    <hyperlink ref="A84" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
-    <hyperlink ref="A86" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
-    <hyperlink ref="A87" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
-    <hyperlink ref="A88" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
-    <hyperlink ref="A89" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
-    <hyperlink ref="A90" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
-    <hyperlink ref="A91" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
-    <hyperlink ref="A92" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
-    <hyperlink ref="A93" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
-    <hyperlink ref="A94" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
-    <hyperlink ref="A95" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
-    <hyperlink ref="A96" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
-    <hyperlink ref="A97" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
-    <hyperlink ref="A98" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
-    <hyperlink ref="A99" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A100" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
-    <hyperlink ref="A101" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
-    <hyperlink ref="A102" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
-    <hyperlink ref="A103" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
-    <hyperlink ref="A104" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
-    <hyperlink ref="A105" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
-    <hyperlink ref="A106" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
-    <hyperlink ref="A107" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
-    <hyperlink ref="A108" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A111" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A112" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A113" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A114" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A115" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A116" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A118" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A119" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A120" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A121" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A122" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A123" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A124" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A126" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A127" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A128" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A129" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A130" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A131" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A132" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
-    <hyperlink ref="H71" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="H44" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="A80" r:id="rId113"/>
-    <hyperlink ref="A110" r:id="rId114"/>
-    <hyperlink ref="A48" r:id="rId115"/>
-    <hyperlink ref="A133" r:id="rId116"/>
-    <hyperlink ref="A68" r:id="rId117"/>
-    <hyperlink ref="A69" r:id="rId118"/>
-    <hyperlink ref="H58" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="A24" r:id="rId17" tooltip="046. Permutations.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/046. Permutations.txt"/>
+    <hyperlink ref="A26" r:id="rId18" tooltip="048. Rotate Image.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/048. Rotate Image.txt"/>
+    <hyperlink ref="A27" r:id="rId19" tooltip="050. Pow(x, n).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/050. Pow(x%2C n).txt"/>
+    <hyperlink ref="A28" r:id="rId20" tooltip="053. Maximum Subarray.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/053. Maximum Subarray.txt"/>
+    <hyperlink ref="A31" r:id="rId21" tooltip="056. Merge Intervals.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/056. Merge Intervals.txt"/>
+    <hyperlink ref="A32" r:id="rId22" tooltip="070. Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/070. Climbing Stairs.txt"/>
+    <hyperlink ref="A33" r:id="rId23" tooltip="071. Simplify Path.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/071. Simplify Path.txt"/>
+    <hyperlink ref="A34" r:id="rId24" tooltip="076. Minimum Window Substring.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/076. Minimum Window Substring.txt"/>
+    <hyperlink ref="A35" r:id="rId25" tooltip="078. Subsets.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/078. Subsets.txt"/>
+    <hyperlink ref="A36" r:id="rId26" tooltip="079. Word Search.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/079. Word Search.txt"/>
+    <hyperlink ref="A38" r:id="rId27" tooltip="089. Gray Code.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/089. Gray Code.txt"/>
+    <hyperlink ref="A40" r:id="rId28" tooltip="092. Reverse Linked List II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/092. Reverse Linked List II.txt"/>
+    <hyperlink ref="A42" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
+    <hyperlink ref="A43" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
+    <hyperlink ref="A44" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
+    <hyperlink ref="A45" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
+    <hyperlink ref="A46" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
+    <hyperlink ref="A47" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
+    <hyperlink ref="A48" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
+    <hyperlink ref="A49" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
+    <hyperlink ref="A50" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
+    <hyperlink ref="A53" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
+    <hyperlink ref="A54" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
+    <hyperlink ref="A55" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
+    <hyperlink ref="A56" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
+    <hyperlink ref="A57" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
+    <hyperlink ref="A58" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
+    <hyperlink ref="A60" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
+    <hyperlink ref="A62" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A63" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
+    <hyperlink ref="A64" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
+    <hyperlink ref="A65" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
+    <hyperlink ref="A67" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
+    <hyperlink ref="A68" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
+    <hyperlink ref="A70" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
+    <hyperlink ref="A71" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
+    <hyperlink ref="A72" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
+    <hyperlink ref="A76" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
+    <hyperlink ref="A77" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
+    <hyperlink ref="A78" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
+    <hyperlink ref="A79" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
+    <hyperlink ref="A80" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
+    <hyperlink ref="A81" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
+    <hyperlink ref="A83" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
+    <hyperlink ref="A84" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
+    <hyperlink ref="A85" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
+    <hyperlink ref="A86" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
+    <hyperlink ref="A88" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
+    <hyperlink ref="A89" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
+    <hyperlink ref="A90" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
+    <hyperlink ref="A91" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
+    <hyperlink ref="A93" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
+    <hyperlink ref="A94" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
+    <hyperlink ref="A95" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
+    <hyperlink ref="A96" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
+    <hyperlink ref="A97" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
+    <hyperlink ref="A98" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
+    <hyperlink ref="A99" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
+    <hyperlink ref="A100" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
+    <hyperlink ref="A101" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
+    <hyperlink ref="A103" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
+    <hyperlink ref="A104" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
+    <hyperlink ref="A105" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
+    <hyperlink ref="A106" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
+    <hyperlink ref="A107" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A108" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
+    <hyperlink ref="A109" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
+    <hyperlink ref="A110" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
+    <hyperlink ref="A111" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
+    <hyperlink ref="A112" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
+    <hyperlink ref="A113" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
+    <hyperlink ref="A114" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
+    <hyperlink ref="A115" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
+    <hyperlink ref="A116" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
+    <hyperlink ref="A121" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="A122" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="A124" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="A125" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="A126" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="A127" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="A129" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="A130" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="A131" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="A132" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="A133" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="A134" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="A135" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="A137" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="A138" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="A139" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="A140" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="A141" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="A142" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="A143" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="H77" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="H47" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="A87" r:id="rId113"/>
+    <hyperlink ref="A119" r:id="rId114"/>
+    <hyperlink ref="A52" r:id="rId115"/>
+    <hyperlink ref="A145" r:id="rId116"/>
+    <hyperlink ref="A73" r:id="rId117"/>
+    <hyperlink ref="A74" r:id="rId118"/>
+    <hyperlink ref="H62" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId120"/>
@@ -3818,7 +4334,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F32</xm:sqref>
+          <xm:sqref>F35</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3828,10 +4344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3860,6 +4376,16 @@
         <v>141</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="262">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -879,6 +879,12 @@
   </si>
   <si>
     <t>Greedy,Array,DP</t>
+  </si>
+  <si>
+    <t>794. Valid Tic-Tac-Toe State.txt</t>
+  </si>
+  <si>
+    <t>Recursion,Mathematics</t>
   </si>
 </sst>
 </file>
@@ -1464,11 +1470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J178"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,12 +3484,16 @@
         <v>89</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="2"/>
       <c r="E116" s="16"/>
       <c r="F116" s="18"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="21"/>
+      <c r="G116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I116" s="21"/>
       <c r="J116" s="7"/>
     </row>
@@ -3820,13 +3830,19 @@
       <c r="A137" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="B137" s="2">
+        <v>1069</v>
+      </c>
+      <c r="C137" s="20"/>
       <c r="D137" s="2"/>
       <c r="E137" s="16"/>
       <c r="F137" s="18"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="21"/>
+      <c r="G137" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I137" s="21"/>
       <c r="J137" s="7"/>
     </row>
@@ -3916,53 +3932,64 @@
     </row>
     <row r="144" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B144" s="2">
-        <v>1409</v>
-      </c>
-      <c r="C144" s="20"/>
+        <v>1022</v>
+      </c>
+      <c r="C144" s="42"/>
       <c r="D144" s="2"/>
       <c r="E144" s="16"/>
       <c r="F144" s="18"/>
       <c r="G144" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H144" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H144" s="23" t="s">
         <v>124</v>
       </c>
       <c r="I144" s="21"/>
       <c r="J144" s="7"/>
     </row>
-    <row r="145" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="39" t="s">
-        <v>167</v>
+    <row r="145" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B145" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C145" s="24"/>
+        <v>1409</v>
+      </c>
+      <c r="C145" s="20"/>
       <c r="D145" s="2"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="40"/>
-      <c r="G145" s="38" t="s">
-        <v>168</v>
+      <c r="F145" s="18"/>
+      <c r="G145" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="H145" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="I145" s="41"/>
-    </row>
-    <row r="146" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="I145" s="21"/>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C146" s="24"/>
       <c r="D146" s="2"/>
       <c r="E146" s="16"/>
       <c r="F146" s="40"/>
-      <c r="H146" s="41"/>
+      <c r="G146" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H146" s="41" t="s">
+        <v>124</v>
+      </c>
       <c r="I146" s="41"/>
     </row>
-    <row r="147" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -3971,7 +3998,7 @@
       <c r="H147" s="41"/>
       <c r="I147" s="41"/>
     </row>
-    <row r="148" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -3980,7 +4007,7 @@
       <c r="H148" s="41"/>
       <c r="I148" s="41"/>
     </row>
-    <row r="149" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -3989,7 +4016,7 @@
       <c r="H149" s="41"/>
       <c r="I149" s="41"/>
     </row>
-    <row r="150" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -3998,7 +4025,7 @@
       <c r="H150" s="41"/>
       <c r="I150" s="41"/>
     </row>
-    <row r="151" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -4007,7 +4034,7 @@
       <c r="H151" s="41"/>
       <c r="I151" s="41"/>
     </row>
-    <row r="152" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -4016,7 +4043,7 @@
       <c r="H152" s="41"/>
       <c r="I152" s="41"/>
     </row>
-    <row r="153" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -4025,7 +4052,7 @@
       <c r="H153" s="41"/>
       <c r="I153" s="41"/>
     </row>
-    <row r="154" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4034,7 +4061,7 @@
       <c r="H154" s="41"/>
       <c r="I154" s="41"/>
     </row>
-    <row r="155" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -4043,7 +4070,7 @@
       <c r="H155" s="41"/>
       <c r="I155" s="41"/>
     </row>
-    <row r="156" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -4052,7 +4079,7 @@
       <c r="H156" s="41"/>
       <c r="I156" s="41"/>
     </row>
-    <row r="157" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -4061,7 +4088,7 @@
       <c r="H157" s="41"/>
       <c r="I157" s="41"/>
     </row>
-    <row r="158" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -4070,7 +4097,7 @@
       <c r="H158" s="41"/>
       <c r="I158" s="41"/>
     </row>
-    <row r="159" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -4079,7 +4106,7 @@
       <c r="H159" s="41"/>
       <c r="I159" s="41"/>
     </row>
-    <row r="160" spans="1:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -4106,17 +4133,20 @@
       <c r="H162" s="41"/>
       <c r="I162" s="41"/>
     </row>
-    <row r="163" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="36"/>
-      <c r="C163" s="36"/>
-      <c r="D163" s="36"/>
-      <c r="E163" s="37"/>
+    <row r="163" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="40"/>
+      <c r="H163" s="41"/>
+      <c r="I163" s="41"/>
     </row>
     <row r="164" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="16"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="36"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
@@ -4201,6 +4231,12 @@
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="16"/>
+    </row>
+    <row r="179" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J143"/>
@@ -4320,7 +4356,7 @@
     <hyperlink ref="A87" r:id="rId113"/>
     <hyperlink ref="A119" r:id="rId114"/>
     <hyperlink ref="A52" r:id="rId115"/>
-    <hyperlink ref="A145" r:id="rId116"/>
+    <hyperlink ref="A146" r:id="rId116"/>
     <hyperlink ref="A73" r:id="rId117"/>
     <hyperlink ref="A74" r:id="rId118"/>
     <hyperlink ref="H62" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>

--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$155</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="280">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -885,6 +885,61 @@
   </si>
   <si>
     <t>Recursion,Mathematics</t>
+  </si>
+  <si>
+    <t>Facebook,Microsoft,Amazon,Bloomberg</t>
+  </si>
+  <si>
+    <t>Recursion,Binary Tree,Divide and Conquer,Binary Search Tree(BST)</t>
+  </si>
+  <si>
+    <t>449. Serialize and Deserialize BST</t>
+  </si>
+  <si>
+    <t>queue, Binary Tree</t>
+  </si>
+  <si>
+    <t>652. Find Duplicate Subtrees.txt</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Dynamic Programming(DP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">915. Inorder Predecessor in BST
+</t>
+  </si>
+  <si>
+    <t>Microsoft,Facebook</t>
+  </si>
+  <si>
+    <t>Microsoft,Facebook,Pocket Gems</t>
+  </si>
+  <si>
+    <t>Binary Tree,Binary Search Tree(BST)</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>651 4 Keys Keyboard.txt</t>
+  </si>
+  <si>
+    <t>843. Digital Flip</t>
+  </si>
+  <si>
+    <t>728. Three Distinct Factors - lintcode</t>
+  </si>
+  <si>
+    <t>408.Valid Word Abbreviation.txt</t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings.txt</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1131,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1186,6 +1241,19 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1470,11 +1538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,17 +2303,23 @@
       <c r="I41" s="21"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2">
+        <v>95</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="16"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="21"/>
+      <c r="G42" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>262</v>
+      </c>
       <c r="I42" s="21"/>
       <c r="J42" s="7"/>
     </row>
@@ -2873,43 +2947,51 @@
       <c r="I77" s="21"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>55</v>
+        <v>278</v>
       </c>
       <c r="B78" s="2">
-        <v>35</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="C78" s="20"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="21"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>279</v>
+      </c>
       <c r="I78" s="21"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="99" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B79" s="2">
+        <v>35</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="16"/>
+      <c r="E79" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="F79" s="18"/>
-      <c r="G79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="7"/>
     </row>
     <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2923,89 +3005,89 @@
     </row>
     <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="2">
-        <v>132</v>
-      </c>
-      <c r="C81" s="20"/>
+        <v>57</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="16"/>
       <c r="F81" s="18"/>
-      <c r="G81" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="I81" s="23"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c r="B82" s="2">
-        <v>534</v>
+        <v>132</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="2"/>
       <c r="E82" s="16"/>
       <c r="F82" s="18"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="23"/>
+      <c r="G82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>198</v>
+      </c>
       <c r="I82" s="23"/>
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="B83" s="2">
+        <v>534</v>
+      </c>
+      <c r="C83" s="20"/>
       <c r="D83" s="2"/>
       <c r="E83" s="16"/>
       <c r="F83" s="18"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="16"/>
       <c r="F84" s="18"/>
-      <c r="G84" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H84" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="16"/>
       <c r="F85" s="18"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="21"/>
+      <c r="G85" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I85" s="21"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3019,65 +3101,65 @@
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="2">
-        <v>372</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="16"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I87" s="23"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2">
-        <v>1310</v>
-      </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="16" t="s">
-        <v>244</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E88" s="16"/>
       <c r="F88" s="18"/>
       <c r="G88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I88" s="23"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1310</v>
+      </c>
+      <c r="C89" s="42"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F89" s="18"/>
+      <c r="G89" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H88" s="23" t="s">
+      <c r="H89" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="I88" s="21"/>
-      <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3091,7 +3173,7 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3105,12 +3187,10 @@
     </row>
     <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="2">
-        <v>569</v>
-      </c>
-      <c r="C92" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="16"/>
       <c r="F92" s="18"/>
@@ -3121,10 +3201,12 @@
     </row>
     <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B93" s="2">
+        <v>569</v>
+      </c>
+      <c r="C93" s="20"/>
       <c r="D93" s="2"/>
       <c r="E93" s="16"/>
       <c r="F93" s="18"/>
@@ -3135,7 +3217,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3149,43 +3231,43 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B95" s="2">
-        <v>900</v>
-      </c>
-      <c r="C95" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H95" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I95" s="23"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
       <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B96" s="2">
+        <v>900</v>
+      </c>
+      <c r="C96" s="20"/>
       <c r="D96" s="2"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="21"/>
-      <c r="I96" s="21"/>
+      <c r="F96" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="I96" s="23"/>
       <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3199,7 +3281,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3211,23 +3293,31 @@
       <c r="I98" s="21"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="B99" s="2">
+        <v>448</v>
+      </c>
+      <c r="C99" s="20"/>
       <c r="D99" s="2"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="21"/>
+      <c r="F99" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>271</v>
+      </c>
       <c r="I99" s="21"/>
       <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3239,34 +3329,26 @@
       <c r="I100" s="21"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" s="2">
-        <v>7</v>
-      </c>
-      <c r="C101" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I101" s="23"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>237</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="2"/>
@@ -3275,31 +3357,39 @@
         <v>137</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="I102" s="23"/>
       <c r="J102" s="7"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" s="2">
         <v>76</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="2"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
+      <c r="F103" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I103" s="23"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3313,7 +3403,7 @@
     </row>
     <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3327,7 +3417,7 @@
     </row>
     <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3341,12 +3431,10 @@
     </row>
     <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B107" s="2">
-        <v>62</v>
-      </c>
-      <c r="C107" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="16"/>
       <c r="F107" s="18"/>
@@ -3357,10 +3445,12 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="B108" s="2">
+        <v>62</v>
+      </c>
+      <c r="C108" s="24"/>
       <c r="D108" s="2"/>
       <c r="E108" s="16"/>
       <c r="F108" s="18"/>
@@ -3371,7 +3461,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3385,7 +3475,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3399,7 +3489,7 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3413,7 +3503,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3427,192 +3517,198 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" s="2">
-        <v>1277</v>
-      </c>
-      <c r="C113" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="E113" s="16"/>
       <c r="F113" s="18"/>
-      <c r="G113" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1277</v>
+      </c>
+      <c r="C114" s="20"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="16"/>
+      <c r="E114" s="16" t="s">
+        <v>247</v>
+      </c>
       <c r="F114" s="18"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="21"/>
+      <c r="G114" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I114" s="21"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B115" s="2">
-        <v>645</v>
-      </c>
-      <c r="C115" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="16"/>
       <c r="F115" s="18"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I115" s="23"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
       <c r="J115" s="7"/>
     </row>
     <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="B116" s="2">
+        <v>645</v>
+      </c>
+      <c r="C116" s="24"/>
       <c r="D116" s="2"/>
       <c r="E116" s="16"/>
       <c r="F116" s="18"/>
-      <c r="G116" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="G116" s="2"/>
       <c r="H116" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I116" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="I116" s="23"/>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="B117" s="2">
-        <v>647</v>
-      </c>
-      <c r="C117" s="20"/>
+        <v>637</v>
+      </c>
+      <c r="C117" s="24"/>
       <c r="D117" s="2"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="H117" s="21"/>
-      <c r="I117" s="21"/>
+      <c r="F117" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="I117" s="23"/>
       <c r="J117" s="7"/>
     </row>
-    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B118" s="2">
-        <v>213</v>
-      </c>
-      <c r="C118" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="2"/>
       <c r="E118" s="16"/>
       <c r="F118" s="18"/>
       <c r="G118" s="2" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="I118" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="I118" s="21"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F119" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G119" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="B119" s="2">
+        <v>647</v>
+      </c>
+      <c r="C119" s="20"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="7"/>
     </row>
     <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="B120" s="2">
+        <v>213</v>
+      </c>
+      <c r="C120" s="24"/>
       <c r="D120" s="2"/>
       <c r="E120" s="16"/>
       <c r="F120" s="18"/>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H120" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I120" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="I120" s="23"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="18"/>
+      <c r="D121" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="16"/>
       <c r="F122" s="18"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="21"/>
+      <c r="G122" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>196</v>
+      </c>
       <c r="I122" s="21"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1197</v>
-      </c>
-      <c r="C123" s="24"/>
+        <v>250</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="20"/>
       <c r="D123" s="2"/>
       <c r="E123" s="16"/>
       <c r="F123" s="18"/>
-      <c r="G123" s="2" t="s">
-        <v>249</v>
-      </c>
+      <c r="G123" s="2"/>
       <c r="H123" s="23" t="s">
         <v>124</v>
       </c>
@@ -3620,41 +3716,40 @@
       <c r="J123" s="7"/>
     </row>
     <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>92</v>
+      <c r="A124" s="1">
+        <v>463</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="20"/>
       <c r="D124" s="2"/>
       <c r="E124" s="16"/>
       <c r="F124" s="18"/>
-      <c r="G124" s="2"/>
+      <c r="G124" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>273</v>
+      </c>
       <c r="I124" s="21"/>
       <c r="J124" s="7"/>
     </row>
     <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B125" s="2">
-        <v>1169</v>
-      </c>
-      <c r="C125" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="16"/>
       <c r="F125" s="18"/>
-      <c r="G125" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G125" s="2"/>
+      <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3668,57 +3763,60 @@
     </row>
     <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1197</v>
+      </c>
+      <c r="C127" s="24"/>
       <c r="D127" s="2"/>
       <c r="E127" s="16"/>
       <c r="F127" s="18"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="21"/>
+      <c r="G127" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I127" s="21"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B128" s="2">
-        <v>596</v>
-      </c>
-      <c r="C128" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="16"/>
-      <c r="F128" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I128" s="23"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="2"/>
+      <c r="I128" s="21"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1169</v>
+      </c>
+      <c r="C129" s="20"/>
       <c r="D129" s="2"/>
       <c r="E129" s="16"/>
       <c r="F129" s="18"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="21"/>
+      <c r="G129" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I129" s="21"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3732,137 +3830,151 @@
     </row>
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B131" s="2">
-        <v>1106</v>
-      </c>
-      <c r="C131" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="F131" s="18"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I131" s="23"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="B132" s="2">
+        <v>596</v>
+      </c>
+      <c r="C132" s="24"/>
       <c r="D132" s="2"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="21"/>
-      <c r="I132" s="21"/>
+      <c r="F132" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I132" s="23"/>
       <c r="J132" s="7"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="20"/>
       <c r="D133" s="2"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="21"/>
+      <c r="F133" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I133" s="21"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="B134" s="2">
+        <v>867</v>
+      </c>
+      <c r="C134" s="20"/>
       <c r="D134" s="2"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="21"/>
+      <c r="F134" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>227</v>
+      </c>
       <c r="I134" s="21"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="C135" s="20"/>
       <c r="D135" s="2"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="2"/>
+      <c r="F135" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="7"/>
     </row>
-    <row r="136" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B136" s="2">
-        <v>702</v>
-      </c>
-      <c r="C136" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="16"/>
       <c r="F136" s="18"/>
-      <c r="G136" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H136" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I136" s="23"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B137" s="2">
-        <v>1069</v>
-      </c>
-      <c r="C137" s="20"/>
+        <v>1106</v>
+      </c>
+      <c r="C137" s="24"/>
       <c r="D137" s="2"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="F137" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G137" s="2"/>
       <c r="H137" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I137" s="21"/>
+      <c r="I137" s="23"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="32"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="35"/>
-    </row>
-    <row r="139" spans="1:10" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="21"/>
+      <c r="I138" s="21"/>
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3874,23 +3986,23 @@
       <c r="I139" s="21"/>
       <c r="J139" s="7"/>
     </row>
-    <row r="140" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>106</v>
+    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="4"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="7"/>
     </row>
-    <row r="141" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3902,172 +4014,249 @@
       <c r="I141" s="21"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B142" s="2">
+        <v>702</v>
+      </c>
+      <c r="C142" s="24"/>
       <c r="D142" s="2"/>
       <c r="E142" s="16"/>
       <c r="F142" s="18"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="21"/>
-      <c r="I142" s="21"/>
+      <c r="G142" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I142" s="23"/>
       <c r="J142" s="7"/>
     </row>
-    <row r="143" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1069</v>
+      </c>
+      <c r="C143" s="20"/>
       <c r="D143" s="2"/>
       <c r="E143" s="16"/>
       <c r="F143" s="18"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="21"/>
+      <c r="G143" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I143" s="21"/>
       <c r="J143" s="7"/>
     </row>
-    <row r="144" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B144" s="2">
-        <v>1022</v>
-      </c>
-      <c r="C144" s="42"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I144" s="21"/>
-      <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B145" s="2">
-        <v>1409</v>
-      </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H145" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="I145" s="21"/>
-      <c r="J145" s="7"/>
-    </row>
-    <row r="146" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C146" s="24"/>
+    <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B144" s="31">
+        <v>728</v>
+      </c>
+      <c r="C144" s="45"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="32"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H144" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I144" s="34"/>
+      <c r="J144" s="35"/>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="31"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="34"/>
+      <c r="J145" s="35"/>
+    </row>
+    <row r="146" spans="1:10" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="40"/>
-      <c r="G146" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H146" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="I146" s="41"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="21"/>
+      <c r="I146" s="21"/>
+      <c r="J146" s="7"/>
     </row>
     <row r="147" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="40"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="21"/>
+      <c r="J147" s="7"/>
     </row>
     <row r="148" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="40"/>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="21"/>
+      <c r="J148" s="7"/>
     </row>
     <row r="149" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="40"/>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="21"/>
+      <c r="J149" s="7"/>
     </row>
     <row r="150" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="40"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="21"/>
+      <c r="J150" s="7"/>
     </row>
     <row r="151" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1022</v>
+      </c>
+      <c r="C151" s="42"/>
       <c r="D151" s="2"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="40"/>
-      <c r="H151" s="41"/>
-      <c r="I151" s="41"/>
-    </row>
-    <row r="152" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I151" s="21"/>
+      <c r="J151" s="7"/>
+    </row>
+    <row r="152" spans="1:10" s="38" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B152" s="2">
+        <v>843</v>
+      </c>
+      <c r="C152" s="42"/>
       <c r="D152" s="2"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="40"/>
-      <c r="H152" s="41"/>
-      <c r="I152" s="41"/>
-    </row>
-    <row r="153" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="F152" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G152" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H152" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I152" s="21"/>
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" spans="1:10" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" s="2">
+        <v>915</v>
+      </c>
+      <c r="C153" s="20"/>
       <c r="D153" s="2"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="40"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="H153" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I153" s="21"/>
+      <c r="J153" s="7"/>
     </row>
     <row r="154" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="A154" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1409</v>
+      </c>
+      <c r="C154" s="20"/>
       <c r="D154" s="2"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="40"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H154" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I154" s="21"/>
+      <c r="J154" s="7"/>
     </row>
     <row r="155" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C155" s="24"/>
       <c r="D155" s="2"/>
       <c r="E155" s="16"/>
       <c r="F155" s="40"/>
-      <c r="H155" s="41"/>
+      <c r="G155" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H155" s="41" t="s">
+        <v>124</v>
+      </c>
       <c r="I155" s="41"/>
     </row>
     <row r="156" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4142,65 +4331,92 @@
       <c r="H163" s="41"/>
       <c r="I163" s="41"/>
     </row>
-    <row r="164" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="37"/>
-    </row>
-    <row r="165" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="40"/>
+      <c r="H164" s="41"/>
+      <c r="I164" s="41"/>
+    </row>
+    <row r="165" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="16"/>
-    </row>
-    <row r="166" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F165" s="40"/>
+      <c r="H165" s="41"/>
+      <c r="I165" s="41"/>
+    </row>
+    <row r="166" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="16"/>
-    </row>
-    <row r="167" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F166" s="40"/>
+      <c r="H166" s="41"/>
+      <c r="I166" s="41"/>
+    </row>
+    <row r="167" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="16"/>
-    </row>
-    <row r="168" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F167" s="40"/>
+      <c r="H167" s="41"/>
+      <c r="I167" s="41"/>
+    </row>
+    <row r="168" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="16"/>
-    </row>
-    <row r="169" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F168" s="40"/>
+      <c r="H168" s="41"/>
+      <c r="I168" s="41"/>
+    </row>
+    <row r="169" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="16"/>
-    </row>
-    <row r="170" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F169" s="40"/>
+      <c r="H169" s="41"/>
+      <c r="I169" s="41"/>
+    </row>
+    <row r="170" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="16"/>
-    </row>
-    <row r="171" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F170" s="40"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="41"/>
+    </row>
+    <row r="171" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="16"/>
-    </row>
-    <row r="172" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F171" s="40"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="41"/>
+    </row>
+    <row r="172" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="16"/>
+      <c r="F172" s="40"/>
+      <c r="H172" s="41"/>
+      <c r="I172" s="41"/>
     </row>
     <row r="173" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="16"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="37"/>
     </row>
     <row r="174" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
@@ -4238,8 +4454,62 @@
       <c r="D179" s="2"/>
       <c r="E179" s="16"/>
     </row>
+    <row r="180" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="16"/>
+    </row>
+    <row r="181" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="16"/>
+    </row>
+    <row r="182" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="16"/>
+    </row>
+    <row r="183" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="16"/>
+    </row>
+    <row r="184" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="16"/>
+    </row>
+    <row r="185" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="16"/>
+    </row>
+    <row r="186" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="16"/>
+    </row>
+    <row r="187" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="16"/>
+    </row>
+    <row r="188" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J143"/>
+  <autoFilter ref="A1:J155"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
@@ -4296,73 +4566,74 @@
     <hyperlink ref="A72" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
     <hyperlink ref="A76" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
     <hyperlink ref="A77" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
-    <hyperlink ref="A78" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
-    <hyperlink ref="A79" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
-    <hyperlink ref="A80" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
-    <hyperlink ref="A81" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
-    <hyperlink ref="A83" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
-    <hyperlink ref="A84" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
-    <hyperlink ref="A85" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
-    <hyperlink ref="A86" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
-    <hyperlink ref="A88" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
-    <hyperlink ref="A89" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
-    <hyperlink ref="A90" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
-    <hyperlink ref="A91" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
-    <hyperlink ref="A93" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
-    <hyperlink ref="A94" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
-    <hyperlink ref="A95" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
-    <hyperlink ref="A96" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
-    <hyperlink ref="A97" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
-    <hyperlink ref="A98" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
-    <hyperlink ref="A99" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
-    <hyperlink ref="A100" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
-    <hyperlink ref="A101" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
-    <hyperlink ref="A103" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
-    <hyperlink ref="A104" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
-    <hyperlink ref="A105" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
-    <hyperlink ref="A106" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
-    <hyperlink ref="A107" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A108" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
-    <hyperlink ref="A109" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
-    <hyperlink ref="A110" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
-    <hyperlink ref="A111" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
-    <hyperlink ref="A112" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
-    <hyperlink ref="A113" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
-    <hyperlink ref="A114" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
-    <hyperlink ref="A115" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
-    <hyperlink ref="A116" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A121" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A122" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A124" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A125" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A126" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A127" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A129" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A130" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A131" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A132" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A133" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A134" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A135" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A137" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A138" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A139" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A140" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A141" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A142" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A143" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="A79" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
+    <hyperlink ref="A80" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
+    <hyperlink ref="A81" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
+    <hyperlink ref="A82" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
+    <hyperlink ref="A84" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
+    <hyperlink ref="A85" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
+    <hyperlink ref="A86" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
+    <hyperlink ref="A87" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
+    <hyperlink ref="A89" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
+    <hyperlink ref="A90" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
+    <hyperlink ref="A91" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
+    <hyperlink ref="A92" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
+    <hyperlink ref="A94" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
+    <hyperlink ref="A95" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
+    <hyperlink ref="A96" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
+    <hyperlink ref="A97" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
+    <hyperlink ref="A98" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
+    <hyperlink ref="A99" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
+    <hyperlink ref="A100" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
+    <hyperlink ref="A101" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
+    <hyperlink ref="A102" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
+    <hyperlink ref="A104" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
+    <hyperlink ref="A105" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
+    <hyperlink ref="A106" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
+    <hyperlink ref="A107" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
+    <hyperlink ref="A108" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A109" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
+    <hyperlink ref="A110" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
+    <hyperlink ref="A111" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
+    <hyperlink ref="A112" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
+    <hyperlink ref="A113" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
+    <hyperlink ref="A114" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
+    <hyperlink ref="A115" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
+    <hyperlink ref="A116" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
+    <hyperlink ref="A118" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
+    <hyperlink ref="A125" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="A126" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="A128" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="A129" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="A130" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="A131" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="A133" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="A136" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="A137" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="A138" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="A139" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="A140" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="A141" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="A143" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="A145" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="A146" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="A147" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="A148" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="A149" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="A150" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
     <hyperlink ref="H77" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
     <hyperlink ref="H47" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="A87" r:id="rId113"/>
-    <hyperlink ref="A119" r:id="rId114"/>
+    <hyperlink ref="A88" r:id="rId113"/>
+    <hyperlink ref="A121" r:id="rId114"/>
     <hyperlink ref="A52" r:id="rId115"/>
-    <hyperlink ref="A146" r:id="rId116"/>
+    <hyperlink ref="A155" r:id="rId116"/>
     <hyperlink ref="A73" r:id="rId117"/>
     <hyperlink ref="A74" r:id="rId118"/>
     <hyperlink ref="H62" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="G153" r:id="rId120" display="https://www.lintcode.com/tag/binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId120"/>
+  <pageSetup orientation="portrait" r:id="rId121"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">

--- a/LeetCode-LintCode-track.xlsx
+++ b/LeetCode-LintCode-track.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$158</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="285">
   <si>
     <t>001. TwoSum.txt</t>
   </si>
@@ -940,6 +940,21 @@
   </si>
   <si>
     <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>105.Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>106. Construct Binary Tree from Inorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>103. Binary Tree Zigzag Level Order Traversal.txt</t>
+  </si>
+  <si>
+    <t>Queue,Binary Tree,Binary Tree Traversal,Breadth-first Search(BFS)</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1146,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1254,6 +1269,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1538,11 +1554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J188"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,63 +2377,75 @@
       <c r="I44" s="23"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="B45" s="2">
+        <v>71</v>
+      </c>
+      <c r="C45" s="24">
+        <v>71</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
+      <c r="G45" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="23"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="B46" s="2">
+        <v>73</v>
+      </c>
+      <c r="C46" s="48"/>
       <c r="D46" s="2"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+      <c r="F46" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="I46" s="23"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="B47" s="2">
-        <v>453</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>126</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="18" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="28"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2429,89 +2457,81 @@
       <c r="I48" s="21"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="2">
-        <v>149</v>
-      </c>
-      <c r="C49" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="I49" s="23"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B50" s="2">
+        <v>453</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
+      <c r="D50" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="28"/>
       <c r="J50" s="7"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B51" s="2">
-        <v>94</v>
-      </c>
-      <c r="C51" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>224</v>
-      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="2">
         <v>149</v>
-      </c>
-      <c r="B52" s="2">
-        <v>415</v>
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="2"/>
       <c r="E52" s="16"/>
-      <c r="F52" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>151</v>
+      <c r="F52" s="18"/>
+      <c r="G52" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="I52" s="23"/>
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2525,35 +2545,53 @@
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="B54" s="2">
+        <v>94</v>
+      </c>
+      <c r="C54" s="24"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="21"/>
+      <c r="E54" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>224</v>
+      </c>
       <c r="I54" s="21"/>
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="B55" s="2">
+        <v>415</v>
+      </c>
+      <c r="C55" s="24"/>
       <c r="D55" s="2"/>
       <c r="E55" s="16"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="F55" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I55" s="23"/>
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2567,7 +2605,7 @@
     </row>
     <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2579,51 +2617,37 @@
       <c r="I57" s="21"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="2">
-        <v>105</v>
-      </c>
-      <c r="C58" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>219</v>
-      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="F59" s="18"/>
       <c r="G59" s="2"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2635,51 +2659,51 @@
       <c r="I60" s="21"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B61" s="2">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="16"/>
+      <c r="E61" s="16" t="s">
+        <v>215</v>
+      </c>
       <c r="F61" s="18" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I61" s="23"/>
+        <v>216</v>
+      </c>
+      <c r="I61" s="23" t="s">
+        <v>219</v>
+      </c>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="2">
-        <v>159</v>
-      </c>
-      <c r="C62" s="20"/>
+        <v>193</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="16"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="I62" s="29"/>
+      <c r="F62" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2691,371 +2715,377 @@
       <c r="I63" s="21"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="B64" s="2">
+        <v>53</v>
+      </c>
+      <c r="C64" s="20"/>
       <c r="D64" s="2"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
+      <c r="F64" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I64" s="23"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B65" s="2">
-        <v>380</v>
-      </c>
-      <c r="C65" s="24"/>
+        <v>159</v>
+      </c>
+      <c r="C65" s="20"/>
       <c r="D65" s="2"/>
       <c r="E65" s="16"/>
       <c r="F65" s="18"/>
       <c r="G65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="I65" s="23"/>
+        <v>214</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I65" s="29"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="20"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="16"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H66" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="I66" s="23"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1352</v>
-      </c>
-      <c r="C67" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="16"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>174</v>
-      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68" s="2">
-        <v>1350</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>123</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="16"/>
       <c r="F68" s="18"/>
       <c r="G68" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H68" s="23" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="I68" s="23"/>
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="2">
-        <v>1348</v>
-      </c>
-      <c r="C69" s="24"/>
+        <v>226</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="2"/>
       <c r="E69" s="16"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="2"/>
+      <c r="G69" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="H69" s="23" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="I69" s="23"/>
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1352</v>
+      </c>
+      <c r="C70" s="20"/>
       <c r="D70" s="2"/>
       <c r="E70" s="16"/>
       <c r="F70" s="18"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="21"/>
+      <c r="G70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>174</v>
+      </c>
       <c r="I70" s="21"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1350</v>
+      </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="16"/>
+      <c r="D71" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="F71" s="18"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
+      <c r="G71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I71" s="23"/>
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2">
-        <v>927</v>
+        <v>1348</v>
       </c>
       <c r="C72" s="24"/>
       <c r="D72" s="2"/>
       <c r="E72" s="16"/>
       <c r="F72" s="18"/>
-      <c r="G72" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="G72" s="2"/>
       <c r="H72" s="23" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="I72" s="23"/>
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="24">
-        <v>1334</v>
-      </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="16"/>
       <c r="F73" s="18"/>
-      <c r="G73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I73" s="23"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1332</v>
-      </c>
-      <c r="C74" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="16"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H74" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I74" s="23"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B75" s="2">
+        <v>927</v>
+      </c>
       <c r="C75" s="24"/>
       <c r="D75" s="2"/>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
       <c r="G75" s="2" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" spans="1:10" ht="198" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="24">
+        <v>1334</v>
+      </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="16" t="s">
-        <v>144</v>
-      </c>
+      <c r="E76" s="16"/>
       <c r="F76" s="18"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="H76" s="23" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B77" s="2">
-        <v>1324</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>1332</v>
+      </c>
+      <c r="C77" s="20"/>
       <c r="D77" s="2"/>
       <c r="E77" s="16"/>
       <c r="F77" s="18"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I77" s="21"/>
+      <c r="G77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I77" s="23"/>
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B78" s="2">
-        <v>638</v>
-      </c>
-      <c r="C78" s="20"/>
+        <v>251</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="2"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G78" s="47" t="s">
-        <v>241</v>
+      <c r="F78" s="18"/>
+      <c r="G78" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="H78" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="I78" s="21"/>
+        <v>252</v>
+      </c>
+      <c r="I78" s="23"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" ht="99" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="198" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="2">
-        <v>35</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="2"/>
       <c r="E79" s="16" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F79" s="18"/>
-      <c r="G79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I79" s="23"/>
       <c r="J79" s="7"/>
     </row>
     <row r="80" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1324</v>
+      </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="21"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="I80" s="21"/>
       <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="B81" s="2">
+        <v>638</v>
+      </c>
+      <c r="C81" s="20"/>
       <c r="D81" s="2"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="21"/>
+      <c r="F81" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G81" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>279</v>
+      </c>
       <c r="I81" s="21"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="99" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B82" s="2">
-        <v>132</v>
-      </c>
-      <c r="C82" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="16"/>
+      <c r="E82" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="F82" s="18"/>
       <c r="G82" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="I82" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B83" s="2">
-        <v>534</v>
-      </c>
-      <c r="C83" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="16"/>
       <c r="F83" s="18"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3069,39 +3099,43 @@
     </row>
     <row r="85" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="B85" s="2">
+        <v>132</v>
+      </c>
+      <c r="C85" s="20"/>
       <c r="D85" s="2"/>
       <c r="E85" s="16"/>
       <c r="F85" s="18"/>
       <c r="G85" s="2" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I85" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="I85" s="23"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="B86" s="2">
+        <v>534</v>
+      </c>
+      <c r="C86" s="20"/>
       <c r="D86" s="2"/>
       <c r="E86" s="16"/>
       <c r="F86" s="18"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
       <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3115,51 +3149,39 @@
     </row>
     <row r="88" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B88" s="2">
-        <v>372</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="2">
-        <v>43293</v>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="16"/>
       <c r="F88" s="18"/>
       <c r="G88" s="2" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="H88" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="I88" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="I88" s="21"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1310</v>
-      </c>
-      <c r="C89" s="42"/>
+        <v>61</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="16" t="s">
-        <v>244</v>
-      </c>
+      <c r="E89" s="16"/>
       <c r="F89" s="18"/>
-      <c r="G89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>245</v>
-      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3173,40 +3195,54 @@
     </row>
     <row r="91" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B91" s="2">
+        <v>372</v>
+      </c>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2">
+        <v>43293</v>
+      </c>
       <c r="E91" s="16"/>
       <c r="F91" s="18"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
+      <c r="G91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I91" s="23"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1310</v>
+      </c>
+      <c r="C92" s="42"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="16"/>
+      <c r="E92" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="F92" s="18"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="21"/>
+      <c r="G92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>245</v>
+      </c>
       <c r="I92" s="21"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="2">
-        <v>569</v>
-      </c>
-      <c r="C93" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="16"/>
       <c r="F93" s="18"/>
@@ -3217,7 +3253,7 @@
     </row>
     <row r="94" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3231,7 +3267,7 @@
     </row>
     <row r="95" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3245,29 +3281,23 @@
     </row>
     <row r="96" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="B96" s="2">
-        <v>900</v>
+        <v>569</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="2"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="I96" s="23"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
       <c r="J96" s="7"/>
     </row>
     <row r="97" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3281,7 +3311,7 @@
     </row>
     <row r="98" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3293,31 +3323,31 @@
       <c r="I98" s="21"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B99" s="2">
-        <v>448</v>
+        <v>900</v>
       </c>
       <c r="C99" s="20"/>
       <c r="D99" s="2"/>
       <c r="E99" s="16"/>
       <c r="F99" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G99" s="14" t="s">
-        <v>272</v>
+        <v>127</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="H99" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="I99" s="21"/>
+        <v>176</v>
+      </c>
+      <c r="I99" s="23"/>
       <c r="J99" s="7"/>
     </row>
     <row r="100" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3331,7 +3361,7 @@
     </row>
     <row r="101" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3343,12 +3373,12 @@
       <c r="I101" s="21"/>
       <c r="J101" s="7"/>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B102" s="2">
-        <v>7</v>
+        <v>448</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="2"/>
@@ -3356,40 +3386,32 @@
       <c r="F102" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>197</v>
+      <c r="G102" s="14" t="s">
+        <v>272</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I102" s="23"/>
+        <v>271</v>
+      </c>
+      <c r="I102" s="21"/>
       <c r="J102" s="7"/>
     </row>
     <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B103" s="2">
-        <v>76</v>
-      </c>
-      <c r="C103" s="20"/>
+        <v>73</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I103" s="23"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
       <c r="J103" s="7"/>
     </row>
     <row r="104" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3401,37 +3423,53 @@
       <c r="I104" s="21"/>
       <c r="J104" s="7"/>
     </row>
-    <row r="105" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="B105" s="2">
+        <v>7</v>
+      </c>
+      <c r="C105" s="20"/>
       <c r="D105" s="2"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="21"/>
-      <c r="I105" s="21"/>
+      <c r="F105" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I105" s="23"/>
       <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="B106" s="2">
+        <v>76</v>
+      </c>
+      <c r="C106" s="20"/>
       <c r="D106" s="2"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="21"/>
+      <c r="F106" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I106" s="23"/>
       <c r="J106" s="7"/>
     </row>
     <row r="107" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3445,12 +3483,10 @@
     </row>
     <row r="108" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B108" s="2">
-        <v>62</v>
-      </c>
-      <c r="C108" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="16"/>
       <c r="F108" s="18"/>
@@ -3461,7 +3497,7 @@
     </row>
     <row r="109" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3475,7 +3511,7 @@
     </row>
     <row r="110" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3489,10 +3525,12 @@
     </row>
     <row r="111" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="B111" s="2">
+        <v>62</v>
+      </c>
+      <c r="C111" s="24"/>
       <c r="D111" s="2"/>
       <c r="E111" s="16"/>
       <c r="F111" s="18"/>
@@ -3503,7 +3541,7 @@
     </row>
     <row r="112" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3517,7 +3555,7 @@
     </row>
     <row r="113" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3531,29 +3569,21 @@
     </row>
     <row r="114" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B114" s="2">
-        <v>1277</v>
-      </c>
-      <c r="C114" s="20"/>
+        <v>83</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="16" t="s">
-        <v>247</v>
-      </c>
+      <c r="E114" s="16"/>
       <c r="F114" s="18"/>
-      <c r="G114" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H114" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3567,223 +3597,225 @@
     </row>
     <row r="116" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B116" s="2">
-        <v>645</v>
-      </c>
-      <c r="C116" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="16"/>
       <c r="F116" s="18"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="I116" s="23"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
       <c r="J116" s="7"/>
     </row>
     <row r="117" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="B117" s="2">
-        <v>637</v>
-      </c>
-      <c r="C117" s="24"/>
+        <v>1277</v>
+      </c>
+      <c r="C117" s="20"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="E117" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F117" s="18"/>
       <c r="G117" s="2" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="H117" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="I117" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="I117" s="21"/>
       <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="20"/>
+      <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="16"/>
       <c r="F118" s="18"/>
-      <c r="G118" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H118" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="7"/>
     </row>
-    <row r="119" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="B119" s="2">
-        <v>647</v>
-      </c>
-      <c r="C119" s="20"/>
+        <v>645</v>
+      </c>
+      <c r="C119" s="24"/>
       <c r="D119" s="2"/>
       <c r="E119" s="16"/>
       <c r="F119" s="18"/>
-      <c r="G119" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="I119" s="23"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="B120" s="2">
-        <v>213</v>
+        <v>637</v>
       </c>
       <c r="C120" s="24"/>
       <c r="D120" s="2"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="18"/>
+      <c r="F120" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="G120" s="2" t="s">
         <v>122</v>
       </c>
       <c r="H120" s="23" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="I120" s="23"/>
       <c r="J120" s="7"/>
     </row>
-    <row r="121" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2">
-        <v>43293</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F121" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G121" s="2"/>
-      <c r="H121" s="21"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I121" s="21"/>
       <c r="J121" s="7"/>
     </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="B122" s="2">
+        <v>647</v>
+      </c>
+      <c r="C122" s="20"/>
       <c r="D122" s="2"/>
       <c r="E122" s="16"/>
       <c r="F122" s="18"/>
-      <c r="G122" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H122" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="G122" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="20"/>
+        <v>185</v>
+      </c>
+      <c r="B123" s="2">
+        <v>213</v>
+      </c>
+      <c r="C123" s="24"/>
       <c r="D123" s="2"/>
       <c r="E123" s="16"/>
       <c r="F123" s="18"/>
-      <c r="G123" s="2"/>
+      <c r="G123" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="H123" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I123" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="I123" s="23"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>463</v>
+    <row r="124" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>273</v>
-      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2">
+        <v>43293</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>90</v>
+        <v>264</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="16"/>
       <c r="F125" s="18"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="21"/>
+      <c r="G125" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>196</v>
+      </c>
       <c r="I125" s="21"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="2"/>
       <c r="E126" s="16"/>
       <c r="F126" s="18"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="21"/>
+      <c r="H126" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I126" s="21"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B127" s="2">
-        <v>1197</v>
-      </c>
-      <c r="C127" s="24"/>
+      <c r="A127" s="1">
+        <v>463</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="20"/>
       <c r="D127" s="2"/>
       <c r="E127" s="16"/>
       <c r="F127" s="18"/>
       <c r="G127" s="2" t="s">
-        <v>249</v>
+        <v>168</v>
       </c>
       <c r="H127" s="23" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="I127" s="21"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3791,46 +3823,47 @@
       <c r="E128" s="16"/>
       <c r="F128" s="18"/>
       <c r="G128" s="2"/>
+      <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B129" s="2">
-        <v>1169</v>
-      </c>
-      <c r="C129" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="16"/>
       <c r="F129" s="18"/>
-      <c r="G129" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H129" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G129" s="2"/>
+      <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1197</v>
+      </c>
+      <c r="C130" s="24"/>
       <c r="D130" s="2"/>
       <c r="E130" s="16"/>
       <c r="F130" s="18"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="21"/>
+      <c r="G130" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I130" s="21"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3838,143 +3871,142 @@
       <c r="E131" s="16"/>
       <c r="F131" s="18"/>
       <c r="G131" s="2"/>
-      <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="B132" s="2">
-        <v>596</v>
-      </c>
-      <c r="C132" s="24"/>
+        <v>1169</v>
+      </c>
+      <c r="C132" s="20"/>
       <c r="D132" s="2"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="18" t="s">
-        <v>127</v>
-      </c>
+      <c r="F132" s="18"/>
       <c r="G132" s="2" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="H132" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="I132" s="23"/>
+        <v>124</v>
+      </c>
+      <c r="I132" s="21"/>
       <c r="J132" s="7"/>
     </row>
     <row r="133" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="20"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H133" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="F133" s="18"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" s="2">
-        <v>867</v>
-      </c>
-      <c r="C134" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H134" s="23" t="s">
-        <v>227</v>
-      </c>
+      <c r="F134" s="18"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="20"/>
+        <v>179</v>
+      </c>
+      <c r="B135" s="2">
+        <v>596</v>
+      </c>
+      <c r="C135" s="24"/>
       <c r="D135" s="2"/>
       <c r="E135" s="16"/>
       <c r="F135" s="18" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H135" s="21"/>
-      <c r="I135" s="21"/>
+        <v>181</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I135" s="23"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="20"/>
       <c r="D136" s="2"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="21"/>
+      <c r="F136" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I136" s="21"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="B137" s="2">
-        <v>1106</v>
-      </c>
-      <c r="C137" s="24"/>
+        <v>867</v>
+      </c>
+      <c r="C137" s="20"/>
       <c r="D137" s="2"/>
       <c r="E137" s="16"/>
       <c r="F137" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="G137" s="2"/>
+      <c r="G137" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="H137" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I137" s="23"/>
+        <v>227</v>
+      </c>
+      <c r="I137" s="21"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="20"/>
       <c r="D138" s="2"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="2"/>
+      <c r="F138" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -3988,21 +4020,27 @@
     </row>
     <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B140" s="2">
+        <v>1106</v>
+      </c>
+      <c r="C140" s="24"/>
       <c r="D140" s="2"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="18"/>
+      <c r="F140" s="18" t="s">
+        <v>137</v>
+      </c>
       <c r="G140" s="2"/>
-      <c r="H140" s="21"/>
-      <c r="I140" s="21"/>
+      <c r="H140" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I140" s="23"/>
       <c r="J140" s="7"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4014,125 +4052,125 @@
       <c r="I141" s="21"/>
       <c r="J141" s="7"/>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B142" s="2">
-        <v>702</v>
-      </c>
-      <c r="C142" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="16"/>
       <c r="F142" s="18"/>
-      <c r="G142" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H142" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="I142" s="23"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
       <c r="J142" s="7"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B143" s="2">
-        <v>1069</v>
-      </c>
-      <c r="C143" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="16"/>
       <c r="F143" s="18"/>
-      <c r="G143" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H143" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G143" s="2"/>
+      <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="7"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B144" s="31">
-        <v>728</v>
-      </c>
-      <c r="C144" s="45"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="32"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="H144" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="I144" s="34"/>
-      <c r="J144" s="35"/>
-    </row>
-    <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B145" s="31"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="32"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="34"/>
-      <c r="I145" s="34"/>
-      <c r="J145" s="35"/>
-    </row>
-    <row r="146" spans="1:10" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="21"/>
+      <c r="I144" s="21"/>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="2">
+        <v>702</v>
+      </c>
+      <c r="C145" s="24"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="I145" s="23"/>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1069</v>
+      </c>
+      <c r="C146" s="20"/>
       <c r="D146" s="2"/>
       <c r="E146" s="16"/>
       <c r="F146" s="18"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="21"/>
+      <c r="G146" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>124</v>
+      </c>
       <c r="I146" s="21"/>
       <c r="J146" s="7"/>
     </row>
-    <row r="147" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="21"/>
-      <c r="J147" s="7"/>
-    </row>
-    <row r="148" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="21"/>
-      <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="31">
+        <v>728</v>
+      </c>
+      <c r="C147" s="45"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H147" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="I147" s="34"/>
+      <c r="J147" s="35"/>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="35"/>
+    </row>
+    <row r="149" spans="1:10" s="38" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4145,145 +4183,160 @@
       <c r="J149" s="7"/>
     </row>
     <row r="150" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>109</v>
+      <c r="A150" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="2"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="4"/>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="7"/>
     </row>
     <row r="151" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B151" s="2">
-        <v>1022</v>
-      </c>
-      <c r="C151" s="42"/>
+        <v>107</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="16"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H151" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="G151" s="2"/>
+      <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="7"/>
     </row>
-    <row r="152" spans="1:10" s="38" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B152" s="2">
-        <v>843</v>
-      </c>
-      <c r="C152" s="42"/>
+        <v>108</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G152" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="H152" s="23" t="s">
-        <v>124</v>
-      </c>
+      <c r="F152" s="18"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="7"/>
     </row>
-    <row r="153" spans="1:10" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B153" s="2">
-        <v>915</v>
-      </c>
-      <c r="C153" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="16"/>
       <c r="F153" s="18"/>
-      <c r="G153" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="H153" s="23" t="s">
-        <v>270</v>
-      </c>
+      <c r="G153" s="2"/>
+      <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="7"/>
     </row>
     <row r="154" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="B154" s="2">
-        <v>1409</v>
-      </c>
-      <c r="C154" s="20"/>
+        <v>1022</v>
+      </c>
+      <c r="C154" s="42"/>
       <c r="D154" s="2"/>
       <c r="E154" s="16"/>
       <c r="F154" s="18"/>
       <c r="G154" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H154" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="H154" s="23" t="s">
         <v>124</v>
       </c>
       <c r="I154" s="21"/>
       <c r="J154" s="7"/>
     </row>
-    <row r="155" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="39" t="s">
-        <v>167</v>
+    <row r="155" spans="1:10" s="38" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B155" s="2">
-        <v>1410</v>
-      </c>
-      <c r="C155" s="24"/>
+        <v>843</v>
+      </c>
+      <c r="C155" s="42"/>
       <c r="D155" s="2"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="40"/>
-      <c r="G155" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="H155" s="41" t="s">
+      <c r="F155" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G155" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="H155" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="I155" s="41"/>
-    </row>
-    <row r="156" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="I155" s="21"/>
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" spans="1:10" s="38" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B156" s="2">
+        <v>915</v>
+      </c>
+      <c r="C156" s="20"/>
       <c r="D156" s="2"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="40"/>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I156" s="21"/>
+      <c r="J156" s="7"/>
     </row>
     <row r="157" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="A157" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1409</v>
+      </c>
+      <c r="C157" s="20"/>
       <c r="D157" s="2"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="40"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H157" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I157" s="21"/>
+      <c r="J157" s="7"/>
     </row>
     <row r="158" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="A158" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C158" s="24"/>
       <c r="D158" s="2"/>
       <c r="E158" s="16"/>
       <c r="F158" s="40"/>
-      <c r="H158" s="41"/>
+      <c r="G158" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H158" s="41" t="s">
+        <v>124</v>
+      </c>
       <c r="I158" s="41"/>
     </row>
     <row r="159" spans="1:10" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -4412,29 +4465,38 @@
       <c r="H172" s="41"/>
       <c r="I172" s="41"/>
     </row>
-    <row r="173" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B173" s="36"/>
-      <c r="C173" s="36"/>
-      <c r="D173" s="36"/>
-      <c r="E173" s="37"/>
-    </row>
-    <row r="174" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="40"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="41"/>
+    </row>
+    <row r="174" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="16"/>
-    </row>
-    <row r="175" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F174" s="40"/>
+      <c r="H174" s="41"/>
+      <c r="I174" s="41"/>
+    </row>
+    <row r="175" spans="2:9" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="16"/>
+      <c r="F175" s="40"/>
+      <c r="H175" s="41"/>
+      <c r="I175" s="41"/>
     </row>
     <row r="176" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="16"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="37"/>
     </row>
     <row r="177" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="2"/>
@@ -4508,8 +4570,26 @@
       <c r="D188" s="2"/>
       <c r="E188" s="16"/>
     </row>
+    <row r="189" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="16"/>
+    </row>
+    <row r="190" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="16"/>
+    </row>
+    <row r="191" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J155"/>
+  <autoFilter ref="A1:J158"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="001. TwoSum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/001. TwoSum.txt"/>
     <hyperlink ref="A3" r:id="rId2" tooltip="002. Add Two Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/002. Add Two Numbers.txt"/>
@@ -4542,95 +4622,95 @@
     <hyperlink ref="A42" r:id="rId29" tooltip="098. Validate Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/098. Validate Binary Search Tree.txt"/>
     <hyperlink ref="A43" r:id="rId30" tooltip="101. Symmetric Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/101. Symmetric Tree.txt"/>
     <hyperlink ref="A44" r:id="rId31" tooltip="102. Binary Tree Level Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/102. Binary Tree Level Order Traversal.txt"/>
-    <hyperlink ref="A45" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
-    <hyperlink ref="A46" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
-    <hyperlink ref="A47" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
-    <hyperlink ref="A48" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
-    <hyperlink ref="A49" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
-    <hyperlink ref="A50" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
-    <hyperlink ref="A53" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
-    <hyperlink ref="A54" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
-    <hyperlink ref="A55" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
-    <hyperlink ref="A56" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
-    <hyperlink ref="A57" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
-    <hyperlink ref="A58" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
-    <hyperlink ref="A60" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
-    <hyperlink ref="A62" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A63" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
-    <hyperlink ref="A64" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
-    <hyperlink ref="A65" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
-    <hyperlink ref="A67" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
-    <hyperlink ref="A68" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
-    <hyperlink ref="A70" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
-    <hyperlink ref="A71" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
-    <hyperlink ref="A72" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
-    <hyperlink ref="A76" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
-    <hyperlink ref="A77" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
-    <hyperlink ref="A79" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
-    <hyperlink ref="A80" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
-    <hyperlink ref="A81" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
-    <hyperlink ref="A82" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
-    <hyperlink ref="A84" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
-    <hyperlink ref="A85" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
-    <hyperlink ref="A86" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
-    <hyperlink ref="A87" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
-    <hyperlink ref="A89" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
-    <hyperlink ref="A90" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
-    <hyperlink ref="A91" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
-    <hyperlink ref="A92" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
-    <hyperlink ref="A94" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
-    <hyperlink ref="A95" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
-    <hyperlink ref="A96" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
-    <hyperlink ref="A97" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
-    <hyperlink ref="A98" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
-    <hyperlink ref="A99" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
-    <hyperlink ref="A100" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
-    <hyperlink ref="A101" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
-    <hyperlink ref="A102" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
-    <hyperlink ref="A104" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
-    <hyperlink ref="A105" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
-    <hyperlink ref="A106" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
-    <hyperlink ref="A107" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
-    <hyperlink ref="A108" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
-    <hyperlink ref="A109" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
-    <hyperlink ref="A110" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
-    <hyperlink ref="A111" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
-    <hyperlink ref="A112" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
-    <hyperlink ref="A113" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
-    <hyperlink ref="A114" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
-    <hyperlink ref="A115" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
-    <hyperlink ref="A116" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
-    <hyperlink ref="A118" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
-    <hyperlink ref="A125" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
-    <hyperlink ref="A126" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
-    <hyperlink ref="A128" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
-    <hyperlink ref="A129" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
-    <hyperlink ref="A130" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
-    <hyperlink ref="A131" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
-    <hyperlink ref="A133" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
-    <hyperlink ref="A136" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
-    <hyperlink ref="A137" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
-    <hyperlink ref="A138" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
-    <hyperlink ref="A139" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
-    <hyperlink ref="A140" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
-    <hyperlink ref="A141" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
-    <hyperlink ref="A143" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
-    <hyperlink ref="A145" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
-    <hyperlink ref="A146" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
-    <hyperlink ref="A147" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
-    <hyperlink ref="A148" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
-    <hyperlink ref="A149" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
-    <hyperlink ref="A150" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
-    <hyperlink ref="H77" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="H47" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="A88" r:id="rId113"/>
-    <hyperlink ref="A121" r:id="rId114"/>
-    <hyperlink ref="A52" r:id="rId115"/>
-    <hyperlink ref="A155" r:id="rId116"/>
-    <hyperlink ref="A73" r:id="rId117"/>
-    <hyperlink ref="A74" r:id="rId118"/>
-    <hyperlink ref="H62" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>
-    <hyperlink ref="G153" r:id="rId120" display="https://www.lintcode.com/tag/binary-tree/"/>
+    <hyperlink ref="A48" r:id="rId32" tooltip="108. Convert Sorted Array to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/108. Convert Sorted Array to Binary Search Tree.txt"/>
+    <hyperlink ref="A49" r:id="rId33" tooltip="109. Convert Sorted List to Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/109. Convert Sorted List to Binary Search Tree.txt"/>
+    <hyperlink ref="A50" r:id="rId34" tooltip="114. Flatten Binary Tree to Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/114. Flatten Binary Tree to Linked List.txt"/>
+    <hyperlink ref="A51" r:id="rId35" tooltip="119. Pascal's Triangle II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/119. Pascal's Triangle II.txt"/>
+    <hyperlink ref="A52" r:id="rId36" tooltip="121. Best Time to Buy and Sell Stock.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/121. Best Time to Buy and Sell Stock.txt"/>
+    <hyperlink ref="A53" r:id="rId37" tooltip="122. Best Time to Buy and Sell Stock II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/122. Best Time to Buy and Sell Stock II.txt"/>
+    <hyperlink ref="A56" r:id="rId38" tooltip="126 Word Ladder II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/126 Word Ladder II.txt"/>
+    <hyperlink ref="A57" r:id="rId39" tooltip="127. Word Ladder.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/127. Word Ladder.txt"/>
+    <hyperlink ref="A58" r:id="rId40" tooltip="129. Sum Root to Leaf Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/129. Sum Root to Leaf Numbers.txt"/>
+    <hyperlink ref="A59" r:id="rId41" tooltip="133. Clone Graph.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/133. Clone Graph.txt"/>
+    <hyperlink ref="A60" r:id="rId42" tooltip="134. Gas Station.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/134. Gas Station.txt"/>
+    <hyperlink ref="A61" r:id="rId43" tooltip="138. Copy List with Random Pointer.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/138. Copy List with Random Pointer.txt"/>
+    <hyperlink ref="A63" r:id="rId44" tooltip="146. LRU Cache.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/146. LRU Cache.txt"/>
+    <hyperlink ref="A65" r:id="rId45" tooltip="153. Find Minimum in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/153. Find Minimum in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A66" r:id="rId46" tooltip="156.Binary Tree Upside Down.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/156.Binary Tree Upside Down.txt"/>
+    <hyperlink ref="A67" r:id="rId47" tooltip="158. Read N Characters Given Read4 II - Call multiple times.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/158. Read N Characters Given Read4 II - Call multiple times.txt"/>
+    <hyperlink ref="A68" r:id="rId48" tooltip="160. Intersection of Two Linked Lists.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/160. Intersection of Two Linked Lists.txt"/>
+    <hyperlink ref="A70" r:id="rId49" tooltip="165. Compare Version Numbers.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/165. Compare Version Numbers.txt"/>
+    <hyperlink ref="A71" r:id="rId50" tooltip="168. Excel Sheet Column Title.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/168. Excel Sheet Column Title.txt"/>
+    <hyperlink ref="A73" r:id="rId51" tooltip="173. Binary Search Tree Iterator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/173. Binary Search Tree Iterator.txt"/>
+    <hyperlink ref="A74" r:id="rId52" tooltip="174. Dungeon Game.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/174. Dungeon Game.txt"/>
+    <hyperlink ref="A75" r:id="rId53" tooltip="186.Reverse Words in a String II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/186.Reverse Words in a String II.txt"/>
+    <hyperlink ref="A79" r:id="rId54" tooltip="200. Number of Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/200. Number of Islands.txt"/>
+    <hyperlink ref="A80" r:id="rId55" tooltip="204. Count Primes.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/204. Count Primes.txt"/>
+    <hyperlink ref="A82" r:id="rId56" tooltip="206. Reverse Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/206. Reverse Linked List.txt"/>
+    <hyperlink ref="A83" r:id="rId57" tooltip="207. Course Schedule.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/207. Course Schedule.txt"/>
+    <hyperlink ref="A84" r:id="rId58" tooltip="210. Course Schedule II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/210. Course Schedule II.txt"/>
+    <hyperlink ref="A85" r:id="rId59" tooltip="212. Word Search II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/212. Word Search II.txt"/>
+    <hyperlink ref="A87" r:id="rId60" tooltip="215. Kth Largest Element in an Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/215. Kth Largest Element in an Array.txt"/>
+    <hyperlink ref="A88" r:id="rId61" tooltip="234. Palindrome Linked List.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/234. Palindrome Linked List.txt"/>
+    <hyperlink ref="A89" r:id="rId62" tooltip="235. Lowest Common Ancestor of a Binary Search Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/235. Lowest Common Ancestor of a Binary Search Tree.txt"/>
+    <hyperlink ref="A90" r:id="rId63" tooltip="236. Lowest Common Ancestor of a Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/236. Lowest Common Ancestor of a Binary Tree.txt"/>
+    <hyperlink ref="A92" r:id="rId64" tooltip="238. Product of Array Except Self.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/238. Product of Array Except Self.txt"/>
+    <hyperlink ref="A93" r:id="rId65" tooltip="239. Sliding Window Maximum.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/239. Sliding Window Maximum.txt"/>
+    <hyperlink ref="A94" r:id="rId66" tooltip="252. Meeting Rooms.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/252. Meeting Rooms.txt"/>
+    <hyperlink ref="A95" r:id="rId67" tooltip="253 Meeting Rooms II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/253 Meeting Rooms II.txt"/>
+    <hyperlink ref="A97" r:id="rId68" tooltip="261. Graph Valid Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/261. Graph Valid Tree.txt"/>
+    <hyperlink ref="A98" r:id="rId69" tooltip="269. Alien Dictionary.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/269. Alien Dictionary.txt"/>
+    <hyperlink ref="A99" r:id="rId70" tooltip="270. Closest Binary Search Tree Value.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/270. Closest Binary Search Tree Value.txt"/>
+    <hyperlink ref="A100" r:id="rId71" tooltip="273. Integer to English Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/273. Integer to English Words.txt"/>
+    <hyperlink ref="A101" r:id="rId72" tooltip="277. Find the Celebrity.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/277. Find the Celebrity.txt"/>
+    <hyperlink ref="A102" r:id="rId73" tooltip="285.Inorder Successor in BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/285.Inorder Successor in BST.txt"/>
+    <hyperlink ref="A103" r:id="rId74" tooltip="287. Find the Duplicate Number.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/287. Find the Duplicate Number.txt"/>
+    <hyperlink ref="A104" r:id="rId75" tooltip="295. Find Median from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/295. Find Median from Data Stream.txt"/>
+    <hyperlink ref="A105" r:id="rId76" tooltip="297. Serialize and Deserialize Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/297. Serialize and Deserialize Binary Tree.txt"/>
+    <hyperlink ref="A107" r:id="rId77" tooltip="305. Number of Islands II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/305. Number of Islands II.txt"/>
+    <hyperlink ref="A108" r:id="rId78" tooltip="314. Binary Tree Vertical Order Traversal.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/314. Binary Tree Vertical Order Traversal.txt"/>
+    <hyperlink ref="A109" r:id="rId79" tooltip="322. Coin Change.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/322. Coin Change.txt"/>
+    <hyperlink ref="A110" r:id="rId80" tooltip="325. Maximum Size Subarray Sum Equals k.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/325. Maximum Size Subarray Sum Equals k.txt"/>
+    <hyperlink ref="A111" r:id="rId81" tooltip="33. Search in Rotated Sorted Array.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/33. Search in Rotated Sorted Array.txt"/>
+    <hyperlink ref="A112" r:id="rId82" tooltip="344.ReverseString.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/344.ReverseString.txt"/>
+    <hyperlink ref="A113" r:id="rId83" tooltip="346. Moving Average from Data Stream.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/346. Moving Average from Data Stream.txt"/>
+    <hyperlink ref="A114" r:id="rId84" tooltip="347. Top K Frequent Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/347. Top K Frequent Elements.txt"/>
+    <hyperlink ref="A115" r:id="rId85" tooltip="348. Design Tic-Tac-Toe.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/348. Design Tic-Tac-Toe.txt"/>
+    <hyperlink ref="A116" r:id="rId86" tooltip="362. Design Hit Counter.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/362. Design Hit Counter.txt"/>
+    <hyperlink ref="A117" r:id="rId87" tooltip="365. Water and Jug Problem.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/365. Water and Jug Problem.txt"/>
+    <hyperlink ref="A118" r:id="rId88" tooltip="380. Insert Delete GetRandom O(1).txt" display="https://github.com/pxu/leetcode-pxu/blob/master/380. Insert Delete GetRandom O(1).txt"/>
+    <hyperlink ref="A119" r:id="rId89" tooltip="387.First_Unique_Character_in_a_String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/387.First_Unique_Character_in_a_String.txt"/>
+    <hyperlink ref="A121" r:id="rId90" tooltip="419. Battleships in a Board.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/419. Battleships in a Board.txt"/>
+    <hyperlink ref="A128" r:id="rId91" tooltip="490. The Maze.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/490. The Maze.txt"/>
+    <hyperlink ref="A129" r:id="rId92" tooltip="505. The Maze II.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/505. The Maze II.txt"/>
+    <hyperlink ref="A131" r:id="rId93" tooltip="535. Encode and Decode TinyURL.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/535. Encode and Decode TinyURL.txt"/>
+    <hyperlink ref="A132" r:id="rId94" tooltip="567. Permutation in String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/567. Permutation in String.txt"/>
+    <hyperlink ref="A133" r:id="rId95" tooltip="572. Subtree of Another Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/572. Subtree of Another Tree.txt"/>
+    <hyperlink ref="A134" r:id="rId96" tooltip="591. Tag Validator.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/591. Tag Validator.txt"/>
+    <hyperlink ref="A136" r:id="rId97" tooltip="650. 2 Keys Keyboard.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/650. 2 Keys Keyboard.txt"/>
+    <hyperlink ref="A139" r:id="rId98" tooltip="653. Two Sum IV - Input is a BST.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/653. Two Sum IV - Input is a BST.txt"/>
+    <hyperlink ref="A140" r:id="rId99" tooltip="654. Maximum Binary Tree.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/654. Maximum Binary Tree.txt"/>
+    <hyperlink ref="A141" r:id="rId100" tooltip="658. Find K Closest Elements.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/658. Find K Closest Elements.txt"/>
+    <hyperlink ref="A142" r:id="rId101" tooltip="684. Redundant Connection.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/684. Redundant Connection.txt"/>
+    <hyperlink ref="A143" r:id="rId102" tooltip="692. Top K Frequent Words.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/692. Top K Frequent Words.txt"/>
+    <hyperlink ref="A144" r:id="rId103" tooltip="694. Number of Distinct Islands.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/694. Number of Distinct Islands.txt"/>
+    <hyperlink ref="A146" r:id="rId104" tooltip="722. Remove Comments.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/722. Remove Comments.txt"/>
+    <hyperlink ref="A148" r:id="rId105" tooltip="746. Min Cost Climbing Stairs.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/746. Min Cost Climbing Stairs.txt"/>
+    <hyperlink ref="A149" r:id="rId106" tooltip="762. Prime Number of Set Bits in Binary Representation.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/762. Prime Number of Set Bits in Binary Representation.txt"/>
+    <hyperlink ref="A150" r:id="rId107" tooltip="763. Partition Labels.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/763. Partition Labels.txt"/>
+    <hyperlink ref="A151" r:id="rId108" tooltip="771. Jewels and Stones.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/771. Jewels and Stones.txt"/>
+    <hyperlink ref="A152" r:id="rId109" tooltip="775. Global and Local Inversions.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/775. Global and Local Inversions.txt"/>
+    <hyperlink ref="A153" r:id="rId110" tooltip="791. Custom Sort String.txt" display="https://github.com/pxu/leetcode-pxu/blob/master/791. Custom Sort String.txt"/>
+    <hyperlink ref="H80" r:id="rId111" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="H50" r:id="rId112" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="A91" r:id="rId113"/>
+    <hyperlink ref="A124" r:id="rId114"/>
+    <hyperlink ref="A55" r:id="rId115"/>
+    <hyperlink ref="A158" r:id="rId116"/>
+    <hyperlink ref="A76" r:id="rId117"/>
+    <hyperlink ref="A77" r:id="rId118"/>
+    <hyperlink ref="H65" r:id="rId119" display="https://www.lintcode.com/tag/microsoft/"/>
+    <hyperlink ref="G156" r:id="rId120" display="https://www.lintcode.com/tag/binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId121"/>
